--- a/测试结果记录模板.xlsx
+++ b/测试结果记录模板.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="27231"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="27425"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\git_project\POPE\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AE56CA25-EA31-46E0-9A6E-8FA57521B257}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1A19EC71-B38F-4278-9AEE-4F586323CC53}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-24120" yWindow="-120" windowWidth="24240" windowHeight="13020" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="165" uniqueCount="51">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="245" uniqueCount="53">
   <si>
     <t>LINEMOD</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -308,10 +308,19 @@
     <t>AP50⬆️</t>
   </si>
   <si>
-    <t>改进方法</t>
-  </si>
-  <si>
     <t>YCBV</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Mkpts</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>ConvNeXt V2</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Mkpts+CNN</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -369,7 +378,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="60">
+  <cellXfs count="5">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -383,61 +392,6 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
@@ -718,10 +672,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:W57"/>
+  <dimension ref="A1:AQ57"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A30" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
-      <selection activeCell="B66" sqref="B66"/>
+    <sheetView tabSelected="1" topLeftCell="A21" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+      <selection activeCell="AN47" sqref="AN47:AO57"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -730,74 +684,104 @@
     <col min="2" max="2" width="13.625" style="1" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="11.625" style="1" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="11.25" style="1" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="9.5" style="1" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="11.25" style="1" bestFit="1" customWidth="1"/>
+    <col min="5" max="6" width="11.25" style="1" customWidth="1"/>
     <col min="7" max="7" width="9.5" style="1" bestFit="1" customWidth="1"/>
     <col min="8" max="8" width="11.25" style="1" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="9.5" style="1" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="11.25" style="1" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="8.5" style="1" bestFit="1" customWidth="1"/>
+    <col min="9" max="10" width="11.25" style="1" customWidth="1"/>
+    <col min="11" max="11" width="9.5" style="1" bestFit="1" customWidth="1"/>
     <col min="12" max="12" width="11.25" style="1" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="9.5" style="1" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="11.25" style="1" bestFit="1" customWidth="1"/>
+    <col min="13" max="14" width="11.25" style="1" customWidth="1"/>
     <col min="15" max="15" width="9.5" style="1" bestFit="1" customWidth="1"/>
     <col min="16" max="16" width="11.25" style="1" bestFit="1" customWidth="1"/>
-    <col min="17" max="17" width="9.5" style="1" bestFit="1" customWidth="1"/>
-    <col min="18" max="18" width="11.25" style="1" bestFit="1" customWidth="1"/>
-    <col min="19" max="19" width="9.5" style="1" bestFit="1" customWidth="1"/>
+    <col min="17" max="18" width="11.25" style="1" customWidth="1"/>
+    <col min="19" max="19" width="8.5" style="1" bestFit="1" customWidth="1"/>
     <col min="20" max="20" width="11.25" style="1" bestFit="1" customWidth="1"/>
-    <col min="21" max="21" width="8.5" style="1" bestFit="1" customWidth="1"/>
-    <col min="22" max="22" width="11.25" style="1" bestFit="1" customWidth="1"/>
+    <col min="21" max="22" width="11.25" style="1" customWidth="1"/>
     <col min="23" max="23" width="9.5" style="1" bestFit="1" customWidth="1"/>
-    <col min="24" max="16384" width="9" style="1"/>
+    <col min="24" max="24" width="11.25" style="1" bestFit="1" customWidth="1"/>
+    <col min="25" max="26" width="11.25" style="1" customWidth="1"/>
+    <col min="27" max="27" width="9.5" style="1" bestFit="1" customWidth="1"/>
+    <col min="28" max="28" width="11.25" style="1" bestFit="1" customWidth="1"/>
+    <col min="29" max="30" width="11.25" style="1" customWidth="1"/>
+    <col min="31" max="31" width="9.5" style="1" bestFit="1" customWidth="1"/>
+    <col min="32" max="32" width="11.25" style="1" bestFit="1" customWidth="1"/>
+    <col min="33" max="34" width="11.25" style="1" customWidth="1"/>
+    <col min="35" max="35" width="9.5" style="1" bestFit="1" customWidth="1"/>
+    <col min="36" max="36" width="11.25" style="1" bestFit="1" customWidth="1"/>
+    <col min="37" max="38" width="11.25" style="1" customWidth="1"/>
+    <col min="39" max="39" width="8.5" style="1" bestFit="1" customWidth="1"/>
+    <col min="40" max="40" width="11.25" style="1" bestFit="1" customWidth="1"/>
+    <col min="41" max="42" width="11.25" style="1" customWidth="1"/>
+    <col min="43" max="43" width="9.5" style="1" bestFit="1" customWidth="1"/>
+    <col min="44" max="16384" width="9" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:23" ht="16.5" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:43" ht="16.5" x14ac:dyDescent="0.2">
       <c r="C1" s="4" t="s">
         <v>45</v>
       </c>
       <c r="D1" s="4"/>
-      <c r="E1" s="4" t="s">
-        <v>44</v>
-      </c>
+      <c r="E1" s="4"/>
       <c r="F1" s="4"/>
       <c r="G1" s="4" t="s">
-        <v>38</v>
+        <v>44</v>
       </c>
       <c r="H1" s="4"/>
-      <c r="I1" s="4" t="s">
-        <v>39</v>
-      </c>
+      <c r="I1" s="4"/>
       <c r="J1" s="4"/>
       <c r="K1" s="4" t="s">
-        <v>40</v>
+        <v>38</v>
       </c>
       <c r="L1" s="4"/>
-      <c r="M1" s="4" t="s">
-        <v>46</v>
-      </c>
+      <c r="M1" s="4"/>
       <c r="N1" s="4"/>
       <c r="O1" s="4" t="s">
-        <v>47</v>
+        <v>39</v>
       </c>
       <c r="P1" s="4"/>
-      <c r="Q1" s="4" t="s">
-        <v>43</v>
-      </c>
+      <c r="Q1" s="4"/>
       <c r="R1" s="4"/>
       <c r="S1" s="4" t="s">
+        <v>40</v>
+      </c>
+      <c r="T1" s="4"/>
+      <c r="U1" s="4"/>
+      <c r="V1" s="4"/>
+      <c r="W1" s="4" t="s">
+        <v>46</v>
+      </c>
+      <c r="X1" s="4"/>
+      <c r="Y1" s="4"/>
+      <c r="Z1" s="4"/>
+      <c r="AA1" s="4" t="s">
+        <v>47</v>
+      </c>
+      <c r="AB1" s="4"/>
+      <c r="AC1" s="4"/>
+      <c r="AD1" s="4"/>
+      <c r="AE1" s="4" t="s">
+        <v>43</v>
+      </c>
+      <c r="AF1" s="4"/>
+      <c r="AG1" s="4"/>
+      <c r="AH1" s="4"/>
+      <c r="AI1" s="4" t="s">
         <v>42</v>
       </c>
-      <c r="T1" s="4"/>
-      <c r="U1" s="4" t="s">
+      <c r="AJ1" s="4"/>
+      <c r="AK1" s="4"/>
+      <c r="AL1" s="4"/>
+      <c r="AM1" s="4" t="s">
         <v>41</v>
       </c>
-      <c r="V1" s="4"/>
-      <c r="W1" s="1" t="s">
+      <c r="AN1" s="4"/>
+      <c r="AO1" s="4"/>
+      <c r="AP1" s="4"/>
+      <c r="AQ1" s="1" t="s">
         <v>48</v>
       </c>
     </row>
-    <row r="2" spans="1:23" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:43" x14ac:dyDescent="0.2">
       <c r="B2" s="1" t="s">
         <v>27</v>
       </c>
@@ -805,2244 +789,3814 @@
         <v>37</v>
       </c>
       <c r="D2" s="3" t="s">
-        <v>49</v>
-      </c>
-      <c r="E2" s="1" t="s">
-        <v>37</v>
+        <v>50</v>
+      </c>
+      <c r="E2" s="3" t="s">
+        <v>51</v>
       </c>
       <c r="F2" s="3" t="s">
-        <v>49</v>
+        <v>52</v>
       </c>
       <c r="G2" s="1" t="s">
         <v>37</v>
       </c>
       <c r="H2" s="3" t="s">
-        <v>49</v>
-      </c>
-      <c r="I2" s="1" t="s">
-        <v>37</v>
+        <v>50</v>
+      </c>
+      <c r="I2" s="3" t="s">
+        <v>51</v>
       </c>
       <c r="J2" s="3" t="s">
-        <v>49</v>
+        <v>52</v>
       </c>
       <c r="K2" s="1" t="s">
         <v>37</v>
       </c>
       <c r="L2" s="3" t="s">
-        <v>49</v>
-      </c>
-      <c r="M2" s="1" t="s">
-        <v>37</v>
+        <v>50</v>
+      </c>
+      <c r="M2" s="3" t="s">
+        <v>51</v>
       </c>
       <c r="N2" s="3" t="s">
-        <v>49</v>
+        <v>52</v>
       </c>
       <c r="O2" s="1" t="s">
         <v>37</v>
       </c>
       <c r="P2" s="3" t="s">
-        <v>49</v>
-      </c>
-      <c r="Q2" s="1" t="s">
-        <v>37</v>
+        <v>50</v>
+      </c>
+      <c r="Q2" s="3" t="s">
+        <v>51</v>
       </c>
       <c r="R2" s="3" t="s">
-        <v>49</v>
+        <v>52</v>
       </c>
       <c r="S2" s="1" t="s">
         <v>37</v>
       </c>
       <c r="T2" s="3" t="s">
-        <v>49</v>
-      </c>
-      <c r="U2" s="1" t="s">
+        <v>50</v>
+      </c>
+      <c r="U2" s="3" t="s">
+        <v>51</v>
+      </c>
+      <c r="V2" s="3" t="s">
+        <v>52</v>
+      </c>
+      <c r="W2" s="1" t="s">
         <v>37</v>
       </c>
-      <c r="V2" s="3" t="s">
-        <v>49</v>
-      </c>
-    </row>
-    <row r="3" spans="1:23" x14ac:dyDescent="0.2">
+      <c r="X2" s="3" t="s">
+        <v>50</v>
+      </c>
+      <c r="Y2" s="3" t="s">
+        <v>51</v>
+      </c>
+      <c r="Z2" s="3" t="s">
+        <v>52</v>
+      </c>
+      <c r="AA2" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="AB2" s="3" t="s">
+        <v>50</v>
+      </c>
+      <c r="AC2" s="3" t="s">
+        <v>51</v>
+      </c>
+      <c r="AD2" s="3" t="s">
+        <v>52</v>
+      </c>
+      <c r="AE2" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="AF2" s="3" t="s">
+        <v>50</v>
+      </c>
+      <c r="AG2" s="3" t="s">
+        <v>51</v>
+      </c>
+      <c r="AH2" s="3" t="s">
+        <v>52</v>
+      </c>
+      <c r="AI2" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="AJ2" s="3" t="s">
+        <v>50</v>
+      </c>
+      <c r="AK2" s="3" t="s">
+        <v>51</v>
+      </c>
+      <c r="AL2" s="3" t="s">
+        <v>52</v>
+      </c>
+      <c r="AM2" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="AN2" s="3" t="s">
+        <v>50</v>
+      </c>
+      <c r="AO2" s="3" t="s">
+        <v>51</v>
+      </c>
+      <c r="AP2" s="3" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="3" spans="1:43" x14ac:dyDescent="0.2">
       <c r="A3" s="4" t="s">
         <v>0</v>
       </c>
       <c r="B3" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="C3" s="5">
+      <c r="C3">
         <v>0.210645</v>
       </c>
-      <c r="E3" s="6">
+      <c r="D3"/>
+      <c r="E3"/>
+      <c r="F3"/>
+      <c r="G3">
         <v>0.43505100000000002</v>
       </c>
-      <c r="G3" s="7">
+      <c r="H3"/>
+      <c r="I3"/>
+      <c r="J3"/>
+      <c r="K3">
         <v>0.46041700000000002</v>
       </c>
-      <c r="I3" s="8">
+      <c r="L3"/>
+      <c r="M3"/>
+      <c r="N3"/>
+      <c r="O3">
         <v>0.80208299999999999</v>
       </c>
-      <c r="K3" s="9">
+      <c r="P3"/>
+      <c r="Q3"/>
+      <c r="R3"/>
+      <c r="S3">
         <v>16.496099999999998</v>
       </c>
-      <c r="M3" s="10">
+      <c r="T3"/>
+      <c r="U3"/>
+      <c r="V3"/>
+      <c r="W3">
         <v>8.0307400000000001E-2</v>
       </c>
-      <c r="O3" s="11">
+      <c r="X3"/>
+      <c r="Y3"/>
+      <c r="Z3"/>
+      <c r="AA3">
         <v>0.18273300000000001</v>
       </c>
-      <c r="Q3" s="12">
+      <c r="AB3"/>
+      <c r="AC3"/>
+      <c r="AD3"/>
+      <c r="AE3">
         <v>0.185417</v>
       </c>
-      <c r="S3" s="13">
+      <c r="AF3"/>
+      <c r="AG3"/>
+      <c r="AH3"/>
+      <c r="AI3">
         <v>0.377083</v>
       </c>
-      <c r="U3" s="14">
+      <c r="AJ3"/>
+      <c r="AK3"/>
+      <c r="AL3"/>
+      <c r="AM3">
         <v>42.957500000000003</v>
       </c>
-      <c r="W3" s="15">
+      <c r="AN3"/>
+      <c r="AO3"/>
+      <c r="AP3"/>
+      <c r="AQ3">
         <v>0.93125000000000002</v>
       </c>
     </row>
-    <row r="4" spans="1:23" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:43" x14ac:dyDescent="0.2">
       <c r="A4" s="4"/>
       <c r="B4" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="C4" s="5">
+      <c r="C4">
         <v>0.2591</v>
       </c>
-      <c r="E4" s="6">
+      <c r="D4"/>
+      <c r="E4"/>
+      <c r="F4"/>
+      <c r="G4">
         <v>0.43280600000000002</v>
       </c>
-      <c r="G4" s="7">
+      <c r="H4"/>
+      <c r="I4"/>
+      <c r="J4"/>
+      <c r="K4">
         <v>0.46448099999999998</v>
       </c>
-      <c r="I4" s="8">
+      <c r="L4"/>
+      <c r="M4"/>
+      <c r="N4"/>
+      <c r="O4">
         <v>0.72677599999999998</v>
       </c>
-      <c r="K4" s="9">
+      <c r="P4"/>
+      <c r="Q4"/>
+      <c r="R4"/>
+      <c r="S4">
         <v>16.9602</v>
       </c>
-      <c r="M4" s="10">
+      <c r="T4"/>
+      <c r="U4"/>
+      <c r="V4"/>
+      <c r="W4">
         <v>0.116725</v>
       </c>
-      <c r="O4" s="11">
+      <c r="X4"/>
+      <c r="Y4"/>
+      <c r="Z4"/>
+      <c r="AA4">
         <v>0.227905</v>
       </c>
-      <c r="Q4" s="12">
+      <c r="AB4"/>
+      <c r="AC4"/>
+      <c r="AD4"/>
+      <c r="AE4">
         <v>0.24043700000000001</v>
       </c>
-      <c r="S4" s="13">
+      <c r="AF4"/>
+      <c r="AG4"/>
+      <c r="AH4"/>
+      <c r="AI4">
         <v>0.42896200000000001</v>
       </c>
-      <c r="U4" s="14">
+      <c r="AJ4"/>
+      <c r="AK4"/>
+      <c r="AL4"/>
+      <c r="AM4">
         <v>39.854300000000002</v>
       </c>
-      <c r="W4" s="15">
+      <c r="AN4"/>
+      <c r="AO4"/>
+      <c r="AP4"/>
+      <c r="AQ4">
         <v>0.52185800000000004</v>
       </c>
     </row>
-    <row r="5" spans="1:23" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:43" x14ac:dyDescent="0.2">
       <c r="A5" s="4"/>
       <c r="B5" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="C5" s="5">
+      <c r="C5">
         <v>0.26550499999999999</v>
       </c>
-      <c r="E5" s="6">
+      <c r="D5"/>
+      <c r="E5"/>
+      <c r="F5"/>
+      <c r="G5">
         <v>0.45499499999999998</v>
       </c>
-      <c r="G5" s="7">
+      <c r="H5"/>
+      <c r="I5"/>
+      <c r="J5"/>
+      <c r="K5">
         <v>0.47854799999999997</v>
       </c>
-      <c r="I5" s="8">
+      <c r="L5"/>
+      <c r="M5"/>
+      <c r="N5"/>
+      <c r="O5">
         <v>0.76237600000000005</v>
       </c>
-      <c r="K5" s="9">
+      <c r="P5"/>
+      <c r="Q5"/>
+      <c r="R5"/>
+      <c r="S5">
         <v>15.5124</v>
       </c>
-      <c r="M5" s="10">
+      <c r="T5"/>
+      <c r="U5"/>
+      <c r="V5"/>
+      <c r="W5">
         <v>0.108185</v>
       </c>
-      <c r="O5" s="11">
+      <c r="X5"/>
+      <c r="Y5"/>
+      <c r="Z5"/>
+      <c r="AA5">
         <v>0.21904599999999999</v>
       </c>
-      <c r="Q5" s="12">
+      <c r="AB5"/>
+      <c r="AC5"/>
+      <c r="AD5"/>
+      <c r="AE5">
         <v>0.234323</v>
       </c>
-      <c r="S5" s="13">
+      <c r="AF5"/>
+      <c r="AG5"/>
+      <c r="AH5"/>
+      <c r="AI5">
         <v>0.40759099999999998</v>
       </c>
-      <c r="U5" s="14">
+      <c r="AJ5"/>
+      <c r="AK5"/>
+      <c r="AL5"/>
+      <c r="AM5">
         <v>38.788699999999999</v>
       </c>
-      <c r="W5" s="15">
+      <c r="AN5"/>
+      <c r="AO5"/>
+      <c r="AP5"/>
+      <c r="AQ5">
         <v>0.67161700000000002</v>
       </c>
     </row>
-    <row r="6" spans="1:23" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:43" x14ac:dyDescent="0.2">
       <c r="A6" s="4"/>
       <c r="B6" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="C6" s="5">
+      <c r="C6">
         <v>0.300093</v>
       </c>
-      <c r="E6" s="6">
+      <c r="D6"/>
+      <c r="E6"/>
+      <c r="F6"/>
+      <c r="G6">
         <v>0.48719899999999999</v>
       </c>
-      <c r="G6" s="7">
+      <c r="H6"/>
+      <c r="I6"/>
+      <c r="J6"/>
+      <c r="K6">
         <v>0.53864699999999999</v>
       </c>
-      <c r="I6" s="8">
+      <c r="L6"/>
+      <c r="M6"/>
+      <c r="N6"/>
+      <c r="O6">
         <v>0.79951700000000003</v>
       </c>
-      <c r="K6" s="9">
+      <c r="P6"/>
+      <c r="Q6"/>
+      <c r="R6"/>
+      <c r="S6">
         <v>12.6234</v>
       </c>
-      <c r="M6" s="10">
+      <c r="T6"/>
+      <c r="U6"/>
+      <c r="V6"/>
+      <c r="W6">
         <v>0.11584999999999999</v>
       </c>
-      <c r="O6" s="11">
+      <c r="X6"/>
+      <c r="Y6"/>
+      <c r="Z6"/>
+      <c r="AA6">
         <v>0.24166899999999999</v>
       </c>
-      <c r="Q6" s="12">
+      <c r="AB6"/>
+      <c r="AC6"/>
+      <c r="AD6"/>
+      <c r="AE6">
         <v>0.25603900000000002</v>
       </c>
-      <c r="S6" s="13">
+      <c r="AF6"/>
+      <c r="AG6"/>
+      <c r="AH6"/>
+      <c r="AI6">
         <v>0.46859899999999999</v>
       </c>
-      <c r="U6" s="14">
+      <c r="AJ6"/>
+      <c r="AK6"/>
+      <c r="AL6"/>
+      <c r="AM6">
         <v>32.789299999999997</v>
       </c>
-      <c r="W6" s="15">
+      <c r="AN6"/>
+      <c r="AO6"/>
+      <c r="AP6"/>
+      <c r="AQ6">
         <v>0.98309199999999997</v>
       </c>
     </row>
-    <row r="7" spans="1:23" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:43" x14ac:dyDescent="0.2">
       <c r="A7" s="4"/>
       <c r="B7" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="C7" s="5">
+      <c r="C7">
         <v>0.20870900000000001</v>
       </c>
-      <c r="E7" s="6">
+      <c r="D7"/>
+      <c r="E7"/>
+      <c r="F7"/>
+      <c r="G7">
         <v>0.39551700000000001</v>
       </c>
-      <c r="G7" s="7">
+      <c r="H7"/>
+      <c r="I7"/>
+      <c r="J7"/>
+      <c r="K7">
         <v>0.43010799999999999</v>
       </c>
-      <c r="I7" s="8">
+      <c r="L7"/>
+      <c r="M7"/>
+      <c r="N7"/>
+      <c r="O7">
         <v>0.727599</v>
       </c>
-      <c r="K7" s="9">
+      <c r="P7"/>
+      <c r="Q7"/>
+      <c r="R7"/>
+      <c r="S7">
         <v>18.131499999999999</v>
       </c>
-      <c r="M7" s="10">
+      <c r="T7"/>
+      <c r="U7"/>
+      <c r="V7"/>
+      <c r="W7">
         <v>6.4264500000000002E-2</v>
       </c>
-      <c r="O7" s="11">
+      <c r="X7"/>
+      <c r="Y7"/>
+      <c r="Z7"/>
+      <c r="AA7">
         <v>0.15496799999999999</v>
       </c>
-      <c r="Q7" s="12">
+      <c r="AB7"/>
+      <c r="AC7"/>
+      <c r="AD7"/>
+      <c r="AE7">
         <v>0.15412200000000001</v>
       </c>
-      <c r="S7" s="13">
+      <c r="AF7"/>
+      <c r="AG7"/>
+      <c r="AH7"/>
+      <c r="AI7">
         <v>0.33333299999999999</v>
       </c>
-      <c r="U7" s="14">
+      <c r="AJ7"/>
+      <c r="AK7"/>
+      <c r="AL7"/>
+      <c r="AM7">
         <v>46.3673</v>
       </c>
-      <c r="W7" s="15">
+      <c r="AN7"/>
+      <c r="AO7"/>
+      <c r="AP7"/>
+      <c r="AQ7">
         <v>0.84767000000000003</v>
       </c>
     </row>
-    <row r="8" spans="1:23" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:43" x14ac:dyDescent="0.2">
       <c r="A8" s="4"/>
       <c r="B8" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="C8" s="16">
+      <c r="C8">
         <v>0.27375899999999997</v>
       </c>
-      <c r="E8" s="17">
+      <c r="D8"/>
+      <c r="E8"/>
+      <c r="F8"/>
+      <c r="G8">
         <v>0.46244000000000002</v>
       </c>
-      <c r="G8" s="18">
+      <c r="H8"/>
+      <c r="I8"/>
+      <c r="J8"/>
+      <c r="K8">
         <v>0.49242399999999997</v>
       </c>
-      <c r="I8" s="19">
+      <c r="L8"/>
+      <c r="M8"/>
+      <c r="N8"/>
+      <c r="O8">
         <v>0.78598500000000004</v>
       </c>
-      <c r="K8" s="20">
+      <c r="P8"/>
+      <c r="Q8"/>
+      <c r="R8"/>
+      <c r="S8">
         <v>15.064299999999999</v>
       </c>
-      <c r="M8" s="21">
+      <c r="T8"/>
+      <c r="U8"/>
+      <c r="V8"/>
+      <c r="W8">
         <v>0.12354</v>
       </c>
-      <c r="O8" s="22">
+      <c r="X8"/>
+      <c r="Y8"/>
+      <c r="Z8"/>
+      <c r="AA8">
         <v>0.22566900000000001</v>
       </c>
-      <c r="Q8" s="23">
+      <c r="AB8"/>
+      <c r="AC8"/>
+      <c r="AD8"/>
+      <c r="AE8">
         <v>0.23863599999999999</v>
       </c>
-      <c r="S8" s="24">
+      <c r="AF8"/>
+      <c r="AG8"/>
+      <c r="AH8"/>
+      <c r="AI8">
         <v>0.41666700000000001</v>
       </c>
-      <c r="U8" s="25">
+      <c r="AJ8"/>
+      <c r="AK8"/>
+      <c r="AL8"/>
+      <c r="AM8">
         <v>37.934600000000003</v>
       </c>
-      <c r="W8" s="26">
+      <c r="AN8"/>
+      <c r="AO8"/>
+      <c r="AP8"/>
+      <c r="AQ8">
         <v>0.66098500000000004</v>
       </c>
     </row>
-    <row r="9" spans="1:23" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:43" x14ac:dyDescent="0.2">
       <c r="A9" s="4"/>
       <c r="B9" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="C9" s="16">
+      <c r="C9">
         <v>0.240368</v>
       </c>
-      <c r="E9" s="17">
+      <c r="D9"/>
+      <c r="E9"/>
+      <c r="F9"/>
+      <c r="G9">
         <v>0.431531</v>
       </c>
-      <c r="G9" s="18">
+      <c r="H9"/>
+      <c r="I9"/>
+      <c r="J9"/>
+      <c r="K9">
         <v>0.45686300000000002</v>
       </c>
-      <c r="I9" s="19">
+      <c r="L9"/>
+      <c r="M9"/>
+      <c r="N9"/>
+      <c r="O9">
         <v>0.76274500000000001</v>
       </c>
-      <c r="K9" s="20">
+      <c r="P9"/>
+      <c r="Q9"/>
+      <c r="R9"/>
+      <c r="S9">
         <v>17.0779</v>
       </c>
-      <c r="M9" s="21">
+      <c r="T9"/>
+      <c r="U9"/>
+      <c r="V9"/>
+      <c r="W9">
         <v>8.7190699999999996E-2</v>
       </c>
-      <c r="O9" s="22">
+      <c r="X9"/>
+      <c r="Y9"/>
+      <c r="Z9"/>
+      <c r="AA9">
         <v>0.197323</v>
       </c>
-      <c r="Q9" s="23">
+      <c r="AB9"/>
+      <c r="AC9"/>
+      <c r="AD9"/>
+      <c r="AE9">
         <v>0.17451</v>
       </c>
-      <c r="S9" s="24">
+      <c r="AF9"/>
+      <c r="AG9"/>
+      <c r="AH9"/>
+      <c r="AI9">
         <v>0.40784300000000001</v>
       </c>
-      <c r="U9" s="25">
+      <c r="AJ9"/>
+      <c r="AK9"/>
+      <c r="AL9"/>
+      <c r="AM9">
         <v>37.8506</v>
       </c>
-      <c r="W9" s="26">
+      <c r="AN9"/>
+      <c r="AO9"/>
+      <c r="AP9"/>
+      <c r="AQ9">
         <v>0.97058800000000001</v>
       </c>
     </row>
-    <row r="10" spans="1:23" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:43" x14ac:dyDescent="0.2">
       <c r="A10" s="4"/>
       <c r="B10" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="C10" s="16">
+      <c r="C10">
         <v>0.37027700000000002</v>
       </c>
-      <c r="E10" s="17">
+      <c r="D10"/>
+      <c r="E10"/>
+      <c r="F10"/>
+      <c r="G10">
         <v>0.54926699999999995</v>
       </c>
-      <c r="G10" s="18">
+      <c r="H10"/>
+      <c r="I10"/>
+      <c r="J10"/>
+      <c r="K10">
         <v>0.588889</v>
       </c>
-      <c r="I10" s="19">
+      <c r="L10"/>
+      <c r="M10"/>
+      <c r="N10"/>
+      <c r="O10">
         <v>0.83703700000000003</v>
       </c>
-      <c r="K10" s="20">
+      <c r="P10"/>
+      <c r="Q10"/>
+      <c r="R10"/>
+      <c r="S10">
         <v>10.233000000000001</v>
       </c>
-      <c r="M10" s="21">
+      <c r="T10"/>
+      <c r="U10"/>
+      <c r="V10"/>
+      <c r="W10">
         <v>0.17095299999999999</v>
       </c>
-      <c r="O10" s="22">
+      <c r="X10"/>
+      <c r="Y10"/>
+      <c r="Z10"/>
+      <c r="AA10">
         <v>0.32530999999999999</v>
       </c>
-      <c r="Q10" s="23">
+      <c r="AB10"/>
+      <c r="AC10"/>
+      <c r="AD10"/>
+      <c r="AE10">
         <v>0.35555599999999998</v>
       </c>
-      <c r="S10" s="24">
+      <c r="AF10"/>
+      <c r="AG10"/>
+      <c r="AH10"/>
+      <c r="AI10">
         <v>0.588889</v>
       </c>
-      <c r="U10" s="25">
+      <c r="AJ10"/>
+      <c r="AK10"/>
+      <c r="AL10"/>
+      <c r="AM10">
         <v>23.850200000000001</v>
       </c>
-      <c r="W10" s="26">
+      <c r="AN10"/>
+      <c r="AO10"/>
+      <c r="AP10"/>
+      <c r="AQ10">
         <v>0.96296300000000001</v>
       </c>
     </row>
-    <row r="11" spans="1:23" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:43" x14ac:dyDescent="0.2">
       <c r="A11" s="4"/>
       <c r="B11" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="C11" s="16">
+      <c r="C11">
         <v>0.18979299999999999</v>
       </c>
-      <c r="E11" s="17">
+      <c r="D11"/>
+      <c r="E11"/>
+      <c r="F11"/>
+      <c r="G11">
         <v>0.37234800000000001</v>
       </c>
-      <c r="G11" s="18">
+      <c r="H11"/>
+      <c r="I11"/>
+      <c r="J11"/>
+      <c r="K11">
         <v>0.38095200000000001</v>
       </c>
-      <c r="I11" s="19">
+      <c r="L11"/>
+      <c r="M11"/>
+      <c r="N11"/>
+      <c r="O11">
         <v>0.67748900000000001</v>
       </c>
-      <c r="K11" s="20">
+      <c r="P11"/>
+      <c r="Q11"/>
+      <c r="R11"/>
+      <c r="S11">
         <v>19.068300000000001</v>
       </c>
-      <c r="M11" s="21">
+      <c r="T11"/>
+      <c r="U11"/>
+      <c r="V11"/>
+      <c r="W11">
         <v>6.3750799999999996E-2</v>
       </c>
-      <c r="O11" s="22">
+      <c r="X11"/>
+      <c r="Y11"/>
+      <c r="Z11"/>
+      <c r="AA11">
         <v>0.148369</v>
       </c>
-      <c r="Q11" s="23">
+      <c r="AB11"/>
+      <c r="AC11"/>
+      <c r="AD11"/>
+      <c r="AE11">
         <v>0.14502200000000001</v>
       </c>
-      <c r="S11" s="24">
+      <c r="AF11"/>
+      <c r="AG11"/>
+      <c r="AH11"/>
+      <c r="AI11">
         <v>0.31385299999999999</v>
       </c>
-      <c r="U11" s="25">
+      <c r="AJ11"/>
+      <c r="AK11"/>
+      <c r="AL11"/>
+      <c r="AM11">
         <v>45.636600000000001</v>
       </c>
-      <c r="W11" s="26">
+      <c r="AN11"/>
+      <c r="AO11"/>
+      <c r="AP11"/>
+      <c r="AQ11">
         <v>0.85281399999999996</v>
       </c>
     </row>
-    <row r="12" spans="1:23" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:43" x14ac:dyDescent="0.2">
       <c r="A12" s="4"/>
       <c r="B12" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="C12" s="16">
+      <c r="C12">
         <v>0.27308700000000002</v>
       </c>
-      <c r="E12" s="17">
+      <c r="D12"/>
+      <c r="E12"/>
+      <c r="F12"/>
+      <c r="G12">
         <v>0.47018300000000002</v>
       </c>
-      <c r="G12" s="18">
+      <c r="H12"/>
+      <c r="I12"/>
+      <c r="J12"/>
+      <c r="K12">
         <v>0.51515200000000005</v>
       </c>
-      <c r="I12" s="19">
+      <c r="L12"/>
+      <c r="M12"/>
+      <c r="N12"/>
+      <c r="O12">
         <v>0.81168799999999997</v>
       </c>
-      <c r="K12" s="20">
+      <c r="P12"/>
+      <c r="Q12"/>
+      <c r="R12"/>
+      <c r="S12">
         <v>14.025600000000001</v>
       </c>
-      <c r="M12" s="21">
+      <c r="T12"/>
+      <c r="U12"/>
+      <c r="V12"/>
+      <c r="W12">
         <v>9.4921800000000001E-2</v>
       </c>
-      <c r="O12" s="22">
+      <c r="X12"/>
+      <c r="Y12"/>
+      <c r="Z12"/>
+      <c r="AA12">
         <v>0.19914799999999999</v>
       </c>
-      <c r="Q12" s="23">
+      <c r="AB12"/>
+      <c r="AC12"/>
+      <c r="AD12"/>
+      <c r="AE12">
         <v>0.214286</v>
       </c>
-      <c r="S12" s="24">
+      <c r="AF12"/>
+      <c r="AG12"/>
+      <c r="AH12"/>
+      <c r="AI12">
         <v>0.37662299999999999</v>
       </c>
-      <c r="U12" s="25">
+      <c r="AJ12"/>
+      <c r="AK12"/>
+      <c r="AL12"/>
+      <c r="AM12">
         <v>39.492699999999999</v>
       </c>
-      <c r="W12" s="26">
+      <c r="AN12"/>
+      <c r="AO12"/>
+      <c r="AP12"/>
+      <c r="AQ12">
         <v>0.96753199999999995</v>
       </c>
     </row>
-    <row r="13" spans="1:23" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:43" x14ac:dyDescent="0.2">
       <c r="A13" s="4"/>
       <c r="B13" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="C13" s="16">
+      <c r="C13">
         <v>0.30014999999999997</v>
       </c>
-      <c r="E13" s="17">
+      <c r="D13"/>
+      <c r="E13"/>
+      <c r="F13"/>
+      <c r="G13">
         <v>0.51314499999999996</v>
       </c>
-      <c r="G13" s="18">
+      <c r="H13"/>
+      <c r="I13"/>
+      <c r="J13"/>
+      <c r="K13">
         <v>0.57142899999999996</v>
       </c>
-      <c r="I13" s="19">
+      <c r="L13"/>
+      <c r="M13"/>
+      <c r="N13"/>
+      <c r="O13">
         <v>0.846939</v>
       </c>
-      <c r="K13" s="20">
+      <c r="P13"/>
+      <c r="Q13"/>
+      <c r="R13"/>
+      <c r="S13">
         <v>13.4772</v>
       </c>
-      <c r="M13" s="21">
+      <c r="T13"/>
+      <c r="U13"/>
+      <c r="V13"/>
+      <c r="W13">
         <v>0.104444</v>
       </c>
-      <c r="O13" s="22">
+      <c r="X13"/>
+      <c r="Y13"/>
+      <c r="Z13"/>
+      <c r="AA13">
         <v>0.21224699999999999</v>
       </c>
-      <c r="Q13" s="23">
+      <c r="AB13"/>
+      <c r="AC13"/>
+      <c r="AD13"/>
+      <c r="AE13">
         <v>0.20408200000000001</v>
       </c>
-      <c r="S13" s="24">
+      <c r="AF13"/>
+      <c r="AG13"/>
+      <c r="AH13"/>
+      <c r="AI13">
         <v>0.408163</v>
       </c>
-      <c r="U13" s="25">
+      <c r="AJ13"/>
+      <c r="AK13"/>
+      <c r="AL13"/>
+      <c r="AM13">
         <v>37.628700000000002</v>
       </c>
-      <c r="W13" s="26">
+      <c r="AN13"/>
+      <c r="AO13"/>
+      <c r="AP13"/>
+      <c r="AQ13">
         <v>0.97278900000000001</v>
       </c>
     </row>
-    <row r="14" spans="1:23" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:43" x14ac:dyDescent="0.2">
       <c r="A14" s="4"/>
       <c r="B14" s="1" t="s">
         <v>14</v>
       </c>
-      <c r="C14" s="16">
+      <c r="C14">
         <v>0.27922000000000002</v>
       </c>
-      <c r="E14" s="17">
+      <c r="D14"/>
+      <c r="E14"/>
+      <c r="F14"/>
+      <c r="G14">
         <v>0.45732200000000001</v>
       </c>
-      <c r="G14" s="18">
+      <c r="H14"/>
+      <c r="I14"/>
+      <c r="J14"/>
+      <c r="K14">
         <v>0.47761199999999998</v>
       </c>
-      <c r="I14" s="19">
+      <c r="L14"/>
+      <c r="M14"/>
+      <c r="N14"/>
+      <c r="O14">
         <v>0.76865700000000003</v>
       </c>
-      <c r="K14" s="20">
+      <c r="P14"/>
+      <c r="Q14"/>
+      <c r="R14"/>
+      <c r="S14">
         <v>15.6821</v>
       </c>
-      <c r="M14" s="21">
+      <c r="T14"/>
+      <c r="U14"/>
+      <c r="V14"/>
+      <c r="W14">
         <v>0.122088</v>
       </c>
-      <c r="O14" s="22">
+      <c r="X14"/>
+      <c r="Y14"/>
+      <c r="Z14"/>
+      <c r="AA14">
         <v>0.21692700000000001</v>
       </c>
-      <c r="Q14" s="23">
+      <c r="AB14"/>
+      <c r="AC14"/>
+      <c r="AD14"/>
+      <c r="AE14">
         <v>0.248756</v>
       </c>
-      <c r="S14" s="24">
+      <c r="AF14"/>
+      <c r="AG14"/>
+      <c r="AH14"/>
+      <c r="AI14">
         <v>0.38308500000000001</v>
       </c>
-      <c r="U14" s="25">
+      <c r="AJ14"/>
+      <c r="AK14"/>
+      <c r="AL14"/>
+      <c r="AM14">
         <v>37.877699999999997</v>
       </c>
-      <c r="W14" s="26">
+      <c r="AN14"/>
+      <c r="AO14"/>
+      <c r="AP14"/>
+      <c r="AQ14">
         <v>0.83582100000000004</v>
       </c>
     </row>
-    <row r="15" spans="1:23" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:43" x14ac:dyDescent="0.2">
       <c r="A15" s="4"/>
       <c r="B15" s="1" t="s">
         <v>15</v>
       </c>
-      <c r="C15" s="16">
+      <c r="C15">
         <v>0.23971899999999999</v>
       </c>
-      <c r="E15" s="17">
+      <c r="D15"/>
+      <c r="E15"/>
+      <c r="F15"/>
+      <c r="G15">
         <v>0.42231000000000002</v>
       </c>
-      <c r="G15" s="18">
+      <c r="H15"/>
+      <c r="I15"/>
+      <c r="J15"/>
+      <c r="K15">
         <v>0.439189</v>
       </c>
-      <c r="I15" s="19">
+      <c r="L15"/>
+      <c r="M15"/>
+      <c r="N15"/>
+      <c r="O15">
         <v>0.74099099999999996</v>
       </c>
-      <c r="K15" s="20">
+      <c r="P15"/>
+      <c r="Q15"/>
+      <c r="R15"/>
+      <c r="S15">
         <v>17.511700000000001</v>
       </c>
-      <c r="M15" s="21">
+      <c r="T15"/>
+      <c r="U15"/>
+      <c r="V15"/>
+      <c r="W15">
         <v>8.9333200000000001E-2</v>
       </c>
-      <c r="O15" s="22">
+      <c r="X15"/>
+      <c r="Y15"/>
+      <c r="Z15"/>
+      <c r="AA15">
         <v>0.16750899999999999</v>
       </c>
-      <c r="Q15" s="23">
+      <c r="AB15"/>
+      <c r="AC15"/>
+      <c r="AD15"/>
+      <c r="AE15">
         <v>0.175676</v>
       </c>
-      <c r="S15" s="24">
+      <c r="AF15"/>
+      <c r="AG15"/>
+      <c r="AH15"/>
+      <c r="AI15">
         <v>0.335586</v>
       </c>
-      <c r="U15" s="25">
+      <c r="AJ15"/>
+      <c r="AK15"/>
+      <c r="AL15"/>
+      <c r="AM15">
         <v>48.584299999999999</v>
       </c>
-      <c r="W15" s="26">
+      <c r="AN15"/>
+      <c r="AO15"/>
+      <c r="AP15"/>
+      <c r="AQ15">
         <v>0.73648599999999997</v>
       </c>
     </row>
-    <row r="16" spans="1:23" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:43" x14ac:dyDescent="0.2">
       <c r="A16" s="4"/>
       <c r="B16" s="1" t="s">
         <v>26</v>
       </c>
-      <c r="C16" s="16">
+      <c r="C16">
         <v>0.26234000000000002</v>
       </c>
-      <c r="E16" s="17">
+      <c r="D16"/>
+      <c r="E16"/>
+      <c r="F16"/>
+      <c r="G16">
         <v>0.45262400000000003</v>
       </c>
-      <c r="G16" s="18">
+      <c r="H16"/>
+      <c r="I16"/>
+      <c r="J16"/>
+      <c r="K16">
         <v>0.48420800000000003</v>
       </c>
-      <c r="I16" s="19">
+      <c r="L16"/>
+      <c r="M16"/>
+      <c r="N16"/>
+      <c r="O16">
         <v>0.77306799999999998</v>
       </c>
-      <c r="K16" s="20">
+      <c r="P16"/>
+      <c r="Q16"/>
+      <c r="R16"/>
+      <c r="S16">
         <v>15.528</v>
       </c>
-      <c r="M16" s="21">
+      <c r="T16"/>
+      <c r="U16"/>
+      <c r="V16"/>
+      <c r="W16">
         <v>0.103196</v>
       </c>
-      <c r="O16" s="22">
+      <c r="X16"/>
+      <c r="Y16"/>
+      <c r="Z16"/>
+      <c r="AA16">
         <v>0.20913999999999999</v>
       </c>
-      <c r="Q16" s="23">
+      <c r="AB16"/>
+      <c r="AC16"/>
+      <c r="AD16"/>
+      <c r="AE16">
         <v>0.21745100000000001</v>
       </c>
-      <c r="S16" s="24">
+      <c r="AF16"/>
+      <c r="AG16"/>
+      <c r="AH16"/>
+      <c r="AI16">
         <v>0.40355999999999997</v>
       </c>
-      <c r="U16" s="25">
+      <c r="AJ16"/>
+      <c r="AK16"/>
+      <c r="AL16"/>
+      <c r="AM16">
         <v>39.201000000000001</v>
       </c>
-      <c r="W16" s="26">
+      <c r="AN16"/>
+      <c r="AO16"/>
+      <c r="AP16"/>
+      <c r="AQ16">
         <v>0.83965100000000004</v>
       </c>
     </row>
-    <row r="18" spans="1:23" ht="16.5" x14ac:dyDescent="0.2">
+    <row r="18" spans="1:43" ht="16.5" x14ac:dyDescent="0.2">
       <c r="C18" s="4" t="s">
         <v>45</v>
       </c>
       <c r="D18" s="4"/>
-      <c r="E18" s="4" t="s">
-        <v>44</v>
-      </c>
+      <c r="E18" s="4"/>
       <c r="F18" s="4"/>
       <c r="G18" s="4" t="s">
-        <v>38</v>
+        <v>44</v>
       </c>
       <c r="H18" s="4"/>
-      <c r="I18" s="4" t="s">
-        <v>39</v>
-      </c>
+      <c r="I18" s="4"/>
       <c r="J18" s="4"/>
       <c r="K18" s="4" t="s">
-        <v>40</v>
+        <v>38</v>
       </c>
       <c r="L18" s="4"/>
-      <c r="M18" s="4" t="s">
-        <v>46</v>
-      </c>
+      <c r="M18" s="4"/>
       <c r="N18" s="4"/>
       <c r="O18" s="4" t="s">
-        <v>47</v>
+        <v>39</v>
       </c>
       <c r="P18" s="4"/>
-      <c r="Q18" s="4" t="s">
-        <v>43</v>
-      </c>
+      <c r="Q18" s="4"/>
       <c r="R18" s="4"/>
       <c r="S18" s="4" t="s">
+        <v>40</v>
+      </c>
+      <c r="T18" s="4"/>
+      <c r="U18" s="4"/>
+      <c r="V18" s="4"/>
+      <c r="W18" s="4" t="s">
+        <v>46</v>
+      </c>
+      <c r="X18" s="4"/>
+      <c r="Y18" s="4"/>
+      <c r="Z18" s="4"/>
+      <c r="AA18" s="4" t="s">
+        <v>47</v>
+      </c>
+      <c r="AB18" s="4"/>
+      <c r="AC18" s="4"/>
+      <c r="AD18" s="4"/>
+      <c r="AE18" s="4" t="s">
+        <v>43</v>
+      </c>
+      <c r="AF18" s="4"/>
+      <c r="AG18" s="4"/>
+      <c r="AH18" s="4"/>
+      <c r="AI18" s="4" t="s">
         <v>42</v>
       </c>
-      <c r="T18" s="4"/>
-      <c r="U18" s="4" t="s">
+      <c r="AJ18" s="4"/>
+      <c r="AK18" s="4"/>
+      <c r="AL18" s="4"/>
+      <c r="AM18" s="4" t="s">
         <v>41</v>
       </c>
-      <c r="V18" s="4"/>
-      <c r="W18" s="1" t="s">
+      <c r="AN18" s="4"/>
+      <c r="AO18" s="4"/>
+      <c r="AP18" s="4"/>
+      <c r="AQ18" s="1" t="s">
         <v>48</v>
       </c>
     </row>
-    <row r="19" spans="1:23" x14ac:dyDescent="0.2">
+    <row r="19" spans="1:43" x14ac:dyDescent="0.2">
       <c r="C19" s="1" t="s">
         <v>37</v>
       </c>
       <c r="D19" s="3" t="s">
-        <v>49</v>
-      </c>
-      <c r="E19" s="1" t="s">
+        <v>50</v>
+      </c>
+      <c r="E19" s="3" t="s">
+        <v>51</v>
+      </c>
+      <c r="F19" s="3" t="s">
+        <v>52</v>
+      </c>
+      <c r="G19" s="1" t="s">
         <v>37</v>
       </c>
-      <c r="F19" s="3" t="s">
-        <v>49</v>
-      </c>
-      <c r="G19" s="3" t="s">
+      <c r="H19" s="3" t="s">
+        <v>50</v>
+      </c>
+      <c r="I19" s="3" t="s">
+        <v>51</v>
+      </c>
+      <c r="J19" s="3" t="s">
+        <v>52</v>
+      </c>
+      <c r="K19" s="3" t="s">
         <v>37</v>
       </c>
-      <c r="H19" s="3" t="s">
-        <v>49</v>
-      </c>
-      <c r="I19" s="1" t="s">
+      <c r="L19" s="3" t="s">
+        <v>50</v>
+      </c>
+      <c r="M19" s="3" t="s">
+        <v>51</v>
+      </c>
+      <c r="N19" s="3" t="s">
+        <v>52</v>
+      </c>
+      <c r="O19" s="1" t="s">
         <v>37</v>
       </c>
-      <c r="J19" s="3" t="s">
-        <v>49</v>
-      </c>
-      <c r="K19" s="1" t="s">
-        <v>37</v>
-      </c>
-      <c r="L19" s="3" t="s">
-        <v>49</v>
-      </c>
-      <c r="M19" s="3" t="s">
-        <v>37</v>
-      </c>
-      <c r="N19" s="3" t="s">
-        <v>49</v>
-      </c>
-      <c r="O19" s="3" t="s">
-        <v>37</v>
-      </c>
       <c r="P19" s="3" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="Q19" s="3" t="s">
-        <v>37</v>
+        <v>51</v>
       </c>
       <c r="R19" s="3" t="s">
-        <v>49</v>
+        <v>52</v>
       </c>
       <c r="S19" s="1" t="s">
         <v>37</v>
       </c>
       <c r="T19" s="3" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="U19" s="3" t="s">
+        <v>51</v>
+      </c>
+      <c r="V19" s="3" t="s">
+        <v>52</v>
+      </c>
+      <c r="W19" s="3" t="s">
         <v>37</v>
       </c>
-      <c r="V19" s="3" t="s">
-        <v>49</v>
-      </c>
-    </row>
-    <row r="20" spans="1:23" x14ac:dyDescent="0.2">
+      <c r="X19" s="3" t="s">
+        <v>50</v>
+      </c>
+      <c r="Y19" s="3" t="s">
+        <v>51</v>
+      </c>
+      <c r="Z19" s="3" t="s">
+        <v>52</v>
+      </c>
+      <c r="AA19" s="3" t="s">
+        <v>37</v>
+      </c>
+      <c r="AB19" s="3" t="s">
+        <v>50</v>
+      </c>
+      <c r="AC19" s="3" t="s">
+        <v>51</v>
+      </c>
+      <c r="AD19" s="3" t="s">
+        <v>52</v>
+      </c>
+      <c r="AE19" s="3" t="s">
+        <v>37</v>
+      </c>
+      <c r="AF19" s="3" t="s">
+        <v>50</v>
+      </c>
+      <c r="AG19" s="3" t="s">
+        <v>51</v>
+      </c>
+      <c r="AH19" s="3" t="s">
+        <v>52</v>
+      </c>
+      <c r="AI19" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="AJ19" s="3" t="s">
+        <v>50</v>
+      </c>
+      <c r="AK19" s="3" t="s">
+        <v>51</v>
+      </c>
+      <c r="AL19" s="3" t="s">
+        <v>52</v>
+      </c>
+      <c r="AM19" s="3" t="s">
+        <v>37</v>
+      </c>
+      <c r="AN19" s="3" t="s">
+        <v>50</v>
+      </c>
+      <c r="AO19" s="3" t="s">
+        <v>51</v>
+      </c>
+      <c r="AP19" s="3" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="20" spans="1:43" x14ac:dyDescent="0.2">
       <c r="A20" s="4" t="s">
         <v>1</v>
       </c>
       <c r="B20" s="1" t="s">
         <v>16</v>
       </c>
-      <c r="C20" s="27">
+      <c r="C20">
         <v>0.67127899999999996</v>
       </c>
-      <c r="E20" s="28">
+      <c r="D20"/>
+      <c r="E20"/>
+      <c r="F20"/>
+      <c r="G20">
         <v>0.79791999999999996</v>
       </c>
-      <c r="G20" s="29">
+      <c r="H20"/>
+      <c r="I20"/>
+      <c r="J20"/>
+      <c r="K20">
         <v>0.894737</v>
       </c>
-      <c r="I20" s="30">
+      <c r="L20"/>
+      <c r="M20"/>
+      <c r="N20"/>
+      <c r="O20">
         <v>0.94508000000000003</v>
       </c>
-      <c r="K20" s="31">
+      <c r="P20"/>
+      <c r="Q20"/>
+      <c r="R20"/>
+      <c r="S20">
         <v>2.8928500000000001</v>
       </c>
-      <c r="M20" s="32">
+      <c r="T20"/>
+      <c r="U20"/>
+      <c r="V20"/>
+      <c r="W20">
         <v>0.46863300000000002</v>
       </c>
-      <c r="O20" s="33">
+      <c r="X20"/>
+      <c r="Y20"/>
+      <c r="Z20"/>
+      <c r="AA20">
         <v>0.62121999999999999</v>
       </c>
-      <c r="Q20" s="34">
+      <c r="AB20"/>
+      <c r="AC20"/>
+      <c r="AD20"/>
+      <c r="AE20">
         <v>0.707094</v>
       </c>
-      <c r="S20" s="35">
+      <c r="AF20"/>
+      <c r="AG20"/>
+      <c r="AH20"/>
+      <c r="AI20">
         <v>0.81922200000000001</v>
       </c>
-      <c r="U20" s="36">
+      <c r="AJ20"/>
+      <c r="AK20"/>
+      <c r="AL20"/>
+      <c r="AM20">
         <v>6.5345399999999998</v>
       </c>
-      <c r="W20" s="37">
+      <c r="AN20"/>
+      <c r="AO20"/>
+      <c r="AP20"/>
+      <c r="AQ20">
         <v>0.91571800000000003</v>
       </c>
     </row>
-    <row r="21" spans="1:23" x14ac:dyDescent="0.2">
+    <row r="21" spans="1:43" x14ac:dyDescent="0.2">
       <c r="A21" s="4"/>
       <c r="B21" s="1" t="s">
         <v>17</v>
       </c>
-      <c r="C21" s="27">
+      <c r="C21">
         <v>0.82437199999999999</v>
       </c>
-      <c r="E21" s="28">
+      <c r="D21"/>
+      <c r="E21"/>
+      <c r="F21"/>
+      <c r="G21">
         <v>0.89706799999999998</v>
       </c>
-      <c r="G21" s="29">
+      <c r="H21"/>
+      <c r="I21"/>
+      <c r="J21"/>
+      <c r="K21">
         <v>0.95578200000000002</v>
       </c>
-      <c r="I21" s="30">
+      <c r="L21"/>
+      <c r="M21"/>
+      <c r="N21"/>
+      <c r="O21">
         <v>0.97619</v>
       </c>
-      <c r="K21" s="31">
+      <c r="P21"/>
+      <c r="Q21"/>
+      <c r="R21"/>
+      <c r="S21">
         <v>1.50379</v>
       </c>
-      <c r="M21" s="32">
+      <c r="T21"/>
+      <c r="U21"/>
+      <c r="V21"/>
+      <c r="W21">
         <v>0.69693499999999997</v>
       </c>
-      <c r="O21" s="33">
+      <c r="X21"/>
+      <c r="Y21"/>
+      <c r="Z21"/>
+      <c r="AA21">
         <v>0.81913999999999998</v>
       </c>
-      <c r="Q21" s="34">
+      <c r="AB21"/>
+      <c r="AC21"/>
+      <c r="AD21"/>
+      <c r="AE21">
         <v>0.90816300000000005</v>
       </c>
-      <c r="S21" s="35">
+      <c r="AF21"/>
+      <c r="AG21"/>
+      <c r="AH21"/>
+      <c r="AI21">
         <v>0.95238100000000003</v>
       </c>
-      <c r="U21" s="36">
+      <c r="AJ21"/>
+      <c r="AK21"/>
+      <c r="AL21"/>
+      <c r="AM21">
         <v>2.7455599999999998</v>
       </c>
-      <c r="W21" s="37">
+      <c r="AN21"/>
+      <c r="AO21"/>
+      <c r="AP21"/>
+      <c r="AQ21">
         <v>0.91156499999999996</v>
       </c>
     </row>
-    <row r="22" spans="1:23" x14ac:dyDescent="0.2">
+    <row r="22" spans="1:43" x14ac:dyDescent="0.2">
       <c r="A22" s="4"/>
       <c r="B22" s="1" t="s">
         <v>18</v>
       </c>
-      <c r="C22" s="27">
+      <c r="C22">
         <v>0.77387399999999995</v>
       </c>
-      <c r="E22" s="28">
+      <c r="D22"/>
+      <c r="E22"/>
+      <c r="F22"/>
+      <c r="G22">
         <v>0.86202800000000002</v>
       </c>
-      <c r="G22" s="29">
+      <c r="H22"/>
+      <c r="I22"/>
+      <c r="J22"/>
+      <c r="K22">
         <v>0.92951499999999998</v>
       </c>
-      <c r="I22" s="30">
+      <c r="L22"/>
+      <c r="M22"/>
+      <c r="N22"/>
+      <c r="O22">
         <v>0.982379</v>
       </c>
-      <c r="K22" s="31">
+      <c r="P22"/>
+      <c r="Q22"/>
+      <c r="R22"/>
+      <c r="S22">
         <v>1.5157400000000001</v>
       </c>
-      <c r="M22" s="32">
+      <c r="T22"/>
+      <c r="U22"/>
+      <c r="V22"/>
+      <c r="W22">
         <v>0.67502899999999999</v>
       </c>
-      <c r="O22" s="33">
+      <c r="X22"/>
+      <c r="Y22"/>
+      <c r="Z22"/>
+      <c r="AA22">
         <v>0.79764400000000002</v>
       </c>
-      <c r="Q22" s="34">
+      <c r="AB22"/>
+      <c r="AC22"/>
+      <c r="AD22"/>
+      <c r="AE22">
         <v>0.87665199999999999</v>
       </c>
-      <c r="S22" s="35">
+      <c r="AF22"/>
+      <c r="AG22"/>
+      <c r="AH22"/>
+      <c r="AI22">
         <v>0.94273099999999999</v>
       </c>
-      <c r="U22" s="36">
+      <c r="AJ22"/>
+      <c r="AK22"/>
+      <c r="AL22"/>
+      <c r="AM22">
         <v>3.0159099999999999</v>
       </c>
-      <c r="W22" s="37">
+      <c r="AN22"/>
+      <c r="AO22"/>
+      <c r="AP22"/>
+      <c r="AQ22">
         <v>0.89867799999999998</v>
       </c>
     </row>
-    <row r="23" spans="1:23" x14ac:dyDescent="0.2">
+    <row r="23" spans="1:43" x14ac:dyDescent="0.2">
       <c r="A23" s="4"/>
       <c r="B23" s="1" t="s">
         <v>19</v>
       </c>
-      <c r="C23" s="27">
+      <c r="C23">
         <v>0.70591999999999999</v>
       </c>
-      <c r="E23" s="28">
+      <c r="D23"/>
+      <c r="E23"/>
+      <c r="F23"/>
+      <c r="G23">
         <v>0.81920999999999999</v>
       </c>
-      <c r="G23" s="29">
+      <c r="H23"/>
+      <c r="I23"/>
+      <c r="J23"/>
+      <c r="K23">
         <v>0.87591200000000002</v>
       </c>
-      <c r="I23" s="30">
+      <c r="L23"/>
+      <c r="M23"/>
+      <c r="N23"/>
+      <c r="O23">
         <v>0.97810200000000003</v>
       </c>
-      <c r="K23" s="31">
+      <c r="P23"/>
+      <c r="Q23"/>
+      <c r="R23"/>
+      <c r="S23">
         <v>2.23773</v>
       </c>
-      <c r="M23" s="32">
+      <c r="T23"/>
+      <c r="U23"/>
+      <c r="V23"/>
+      <c r="W23">
         <v>0.57155500000000004</v>
       </c>
-      <c r="O23" s="33">
+      <c r="X23"/>
+      <c r="Y23"/>
+      <c r="Z23"/>
+      <c r="AA23">
         <v>0.70085900000000001</v>
       </c>
-      <c r="Q23" s="34">
+      <c r="AB23"/>
+      <c r="AC23"/>
+      <c r="AD23"/>
+      <c r="AE23">
         <v>0.78467200000000004</v>
       </c>
-      <c r="S23" s="35">
+      <c r="AF23"/>
+      <c r="AG23"/>
+      <c r="AH23"/>
+      <c r="AI23">
         <v>0.85766399999999998</v>
       </c>
-      <c r="U23" s="36">
+      <c r="AJ23"/>
+      <c r="AK23"/>
+      <c r="AL23"/>
+      <c r="AM23">
         <v>4.4629200000000004</v>
       </c>
-      <c r="W23" s="37">
+      <c r="AN23"/>
+      <c r="AO23"/>
+      <c r="AP23"/>
+      <c r="AQ23">
         <v>0.95620400000000005</v>
       </c>
     </row>
-    <row r="24" spans="1:23" x14ac:dyDescent="0.2">
+    <row r="24" spans="1:43" x14ac:dyDescent="0.2">
       <c r="A24" s="4"/>
       <c r="B24" s="1" t="s">
         <v>20</v>
       </c>
-      <c r="C24" s="27">
+      <c r="C24">
         <v>0.83193300000000003</v>
       </c>
-      <c r="E24" s="28">
+      <c r="D24"/>
+      <c r="E24"/>
+      <c r="F24"/>
+      <c r="G24">
         <v>0.90308500000000003</v>
       </c>
-      <c r="G24" s="29">
+      <c r="H24"/>
+      <c r="I24"/>
+      <c r="J24"/>
+      <c r="K24">
         <v>0.96</v>
       </c>
-      <c r="I24" s="30">
+      <c r="L24"/>
+      <c r="M24"/>
+      <c r="N24"/>
+      <c r="O24">
         <v>0.98799999999999999</v>
       </c>
-      <c r="K24" s="31">
+      <c r="P24"/>
+      <c r="Q24"/>
+      <c r="R24"/>
+      <c r="S24">
         <v>1.59955</v>
       </c>
-      <c r="M24" s="32">
+      <c r="T24"/>
+      <c r="U24"/>
+      <c r="V24"/>
+      <c r="W24">
         <v>0.72583299999999995</v>
       </c>
-      <c r="O24" s="33">
+      <c r="X24"/>
+      <c r="Y24"/>
+      <c r="Z24"/>
+      <c r="AA24">
         <v>0.84384599999999998</v>
       </c>
-      <c r="Q24" s="34">
+      <c r="AB24"/>
+      <c r="AC24"/>
+      <c r="AD24"/>
+      <c r="AE24">
         <v>0.94799999999999995</v>
       </c>
-      <c r="S24" s="35">
+      <c r="AF24"/>
+      <c r="AG24"/>
+      <c r="AH24"/>
+      <c r="AI24">
         <v>0.96799999999999997</v>
       </c>
-      <c r="U24" s="36">
+      <c r="AJ24"/>
+      <c r="AK24"/>
+      <c r="AL24"/>
+      <c r="AM24">
         <v>2.5116000000000001</v>
       </c>
-      <c r="W24" s="37">
+      <c r="AN24"/>
+      <c r="AO24"/>
+      <c r="AP24"/>
+      <c r="AQ24">
         <v>0.79600000000000004</v>
       </c>
     </row>
-    <row r="25" spans="1:23" x14ac:dyDescent="0.2">
+    <row r="25" spans="1:43" x14ac:dyDescent="0.2">
       <c r="A25" s="4"/>
       <c r="B25" s="1" t="s">
         <v>21</v>
       </c>
-      <c r="C25" s="27">
+      <c r="C25">
         <v>0.83439200000000002</v>
       </c>
-      <c r="E25" s="28">
+      <c r="D25"/>
+      <c r="E25"/>
+      <c r="F25"/>
+      <c r="G25">
         <v>0.90360700000000005</v>
       </c>
-      <c r="G25" s="29">
+      <c r="H25"/>
+      <c r="I25"/>
+      <c r="J25"/>
+      <c r="K25">
         <v>0.953901</v>
       </c>
-      <c r="I25" s="30">
+      <c r="L25"/>
+      <c r="M25"/>
+      <c r="N25"/>
+      <c r="O25">
         <v>0.98581600000000003</v>
       </c>
-      <c r="K25" s="31">
+      <c r="P25"/>
+      <c r="Q25"/>
+      <c r="R25"/>
+      <c r="S25">
         <v>1.3797900000000001</v>
       </c>
-      <c r="M25" s="32">
+      <c r="T25"/>
+      <c r="U25"/>
+      <c r="V25"/>
+      <c r="W25">
         <v>0.68406</v>
       </c>
-      <c r="O25" s="33">
+      <c r="X25"/>
+      <c r="Y25"/>
+      <c r="Z25"/>
+      <c r="AA25">
         <v>0.79974699999999999</v>
       </c>
-      <c r="Q25" s="34">
+      <c r="AB25"/>
+      <c r="AC25"/>
+      <c r="AD25"/>
+      <c r="AE25">
         <v>0.89007099999999995</v>
       </c>
-      <c r="S25" s="35">
+      <c r="AF25"/>
+      <c r="AG25"/>
+      <c r="AH25"/>
+      <c r="AI25">
         <v>0.93262400000000001</v>
       </c>
-      <c r="U25" s="36">
+      <c r="AJ25"/>
+      <c r="AK25"/>
+      <c r="AL25"/>
+      <c r="AM25">
         <v>3.0276000000000001</v>
       </c>
-      <c r="W25" s="37">
+      <c r="AN25"/>
+      <c r="AO25"/>
+      <c r="AP25"/>
+      <c r="AQ25">
         <v>0.91489399999999999</v>
       </c>
     </row>
-    <row r="26" spans="1:23" x14ac:dyDescent="0.2">
+    <row r="26" spans="1:43" x14ac:dyDescent="0.2">
       <c r="A26" s="4"/>
       <c r="B26" s="1" t="s">
         <v>22</v>
       </c>
-      <c r="C26" s="27">
+      <c r="C26">
         <v>0.78317999999999999</v>
       </c>
-      <c r="E26" s="28">
+      <c r="D26"/>
+      <c r="E26"/>
+      <c r="F26"/>
+      <c r="G26">
         <v>0.87198799999999999</v>
       </c>
-      <c r="G26" s="29">
+      <c r="H26"/>
+      <c r="I26"/>
+      <c r="J26"/>
+      <c r="K26">
         <v>0.93406599999999995</v>
       </c>
-      <c r="I26" s="30">
+      <c r="L26"/>
+      <c r="M26"/>
+      <c r="N26"/>
+      <c r="O26">
         <v>0.975275</v>
       </c>
-      <c r="K26" s="31">
+      <c r="P26"/>
+      <c r="Q26"/>
+      <c r="R26"/>
+      <c r="S26">
         <v>1.63324</v>
       </c>
-      <c r="M26" s="32">
+      <c r="T26"/>
+      <c r="U26"/>
+      <c r="V26"/>
+      <c r="W26">
         <v>0.69546399999999997</v>
       </c>
-      <c r="O26" s="33">
+      <c r="X26"/>
+      <c r="Y26"/>
+      <c r="Z26"/>
+      <c r="AA26">
         <v>0.80221699999999996</v>
       </c>
-      <c r="Q26" s="34">
+      <c r="AB26"/>
+      <c r="AC26"/>
+      <c r="AD26"/>
+      <c r="AE26">
         <v>0.88461500000000004</v>
       </c>
-      <c r="S26" s="35">
+      <c r="AF26"/>
+      <c r="AG26"/>
+      <c r="AH26"/>
+      <c r="AI26">
         <v>0.92307700000000004</v>
       </c>
-      <c r="U26" s="36">
+      <c r="AJ26"/>
+      <c r="AK26"/>
+      <c r="AL26"/>
+      <c r="AM26">
         <v>2.53043</v>
       </c>
-      <c r="W26" s="37">
+      <c r="AN26"/>
+      <c r="AO26"/>
+      <c r="AP26"/>
+      <c r="AQ26">
         <v>0.90659299999999998</v>
       </c>
     </row>
-    <row r="27" spans="1:23" x14ac:dyDescent="0.2">
+    <row r="27" spans="1:43" x14ac:dyDescent="0.2">
       <c r="A27" s="4"/>
       <c r="B27" s="1" t="s">
         <v>23</v>
       </c>
-      <c r="C27" s="27">
+      <c r="C27">
         <v>0.66098699999999999</v>
       </c>
-      <c r="E27" s="28">
+      <c r="D27"/>
+      <c r="E27"/>
+      <c r="F27"/>
+      <c r="G27">
         <v>0.76680300000000001</v>
       </c>
-      <c r="G27" s="29">
+      <c r="H27"/>
+      <c r="I27"/>
+      <c r="J27"/>
+      <c r="K27">
         <v>0.81311500000000003</v>
       </c>
-      <c r="I27" s="30">
+      <c r="L27"/>
+      <c r="M27"/>
+      <c r="N27"/>
+      <c r="O27">
         <v>0.91147500000000004</v>
       </c>
-      <c r="K27" s="31">
+      <c r="P27"/>
+      <c r="Q27"/>
+      <c r="R27"/>
+      <c r="S27">
         <v>2.5430899999999999</v>
       </c>
-      <c r="M27" s="32">
+      <c r="T27"/>
+      <c r="U27"/>
+      <c r="V27"/>
+      <c r="W27">
         <v>0.51147500000000001</v>
       </c>
-      <c r="O27" s="33">
+      <c r="X27"/>
+      <c r="Y27"/>
+      <c r="Z27"/>
+      <c r="AA27">
         <v>0.64465899999999998</v>
       </c>
-      <c r="Q27" s="34">
+      <c r="AB27"/>
+      <c r="AC27"/>
+      <c r="AD27"/>
+      <c r="AE27">
         <v>0.73770500000000006</v>
       </c>
-      <c r="S27" s="35">
+      <c r="AF27"/>
+      <c r="AG27"/>
+      <c r="AH27"/>
+      <c r="AI27">
         <v>0.80655699999999997</v>
       </c>
-      <c r="U27" s="36">
+      <c r="AJ27"/>
+      <c r="AK27"/>
+      <c r="AL27"/>
+      <c r="AM27">
         <v>5.3682999999999996</v>
       </c>
-      <c r="W27" s="37">
+      <c r="AN27"/>
+      <c r="AO27"/>
+      <c r="AP27"/>
+      <c r="AQ27">
         <v>0.84590200000000004</v>
       </c>
     </row>
-    <row r="28" spans="1:23" x14ac:dyDescent="0.2">
+    <row r="28" spans="1:43" x14ac:dyDescent="0.2">
       <c r="A28" s="4"/>
       <c r="B28" s="1" t="s">
         <v>24</v>
       </c>
-      <c r="C28" s="27">
+      <c r="C28">
         <v>0.77182700000000004</v>
       </c>
-      <c r="E28" s="28">
+      <c r="D28"/>
+      <c r="E28"/>
+      <c r="F28"/>
+      <c r="G28">
         <v>0.87604199999999999</v>
       </c>
-      <c r="G28" s="29">
+      <c r="H28"/>
+      <c r="I28"/>
+      <c r="J28"/>
+      <c r="K28">
         <v>0.95412799999999998</v>
       </c>
-      <c r="I28" s="30">
+      <c r="L28"/>
+      <c r="M28"/>
+      <c r="N28"/>
+      <c r="O28">
         <v>0.98776799999999998</v>
       </c>
-      <c r="K28" s="31">
+      <c r="P28"/>
+      <c r="Q28"/>
+      <c r="R28"/>
+      <c r="S28">
         <v>2.1581199999999998</v>
       </c>
-      <c r="M28" s="32">
+      <c r="T28"/>
+      <c r="U28"/>
+      <c r="V28"/>
+      <c r="W28">
         <v>0.68441399999999997</v>
       </c>
-      <c r="O28" s="33">
+      <c r="X28"/>
+      <c r="Y28"/>
+      <c r="Z28"/>
+      <c r="AA28">
         <v>0.80634499999999998</v>
       </c>
-      <c r="Q28" s="34">
+      <c r="AB28"/>
+      <c r="AC28"/>
+      <c r="AD28"/>
+      <c r="AE28">
         <v>0.89602400000000004</v>
       </c>
-      <c r="S28" s="35">
+      <c r="AF28"/>
+      <c r="AG28"/>
+      <c r="AH28"/>
+      <c r="AI28">
         <v>0.94189599999999996</v>
       </c>
-      <c r="U28" s="36">
+      <c r="AJ28"/>
+      <c r="AK28"/>
+      <c r="AL28"/>
+      <c r="AM28">
         <v>3.1897799999999998</v>
       </c>
-      <c r="W28" s="37">
+      <c r="AN28"/>
+      <c r="AO28"/>
+      <c r="AP28"/>
+      <c r="AQ28">
         <v>0.55657500000000004</v>
       </c>
     </row>
-    <row r="29" spans="1:23" x14ac:dyDescent="0.2">
+    <row r="29" spans="1:43" x14ac:dyDescent="0.2">
       <c r="A29" s="4"/>
       <c r="B29" s="1" t="s">
         <v>25</v>
       </c>
-      <c r="C29" s="27">
+      <c r="C29">
         <v>0.61606399999999994</v>
       </c>
-      <c r="E29" s="28">
+      <c r="D29"/>
+      <c r="E29"/>
+      <c r="F29"/>
+      <c r="G29">
         <v>0.75440799999999997</v>
       </c>
-      <c r="G29" s="29">
+      <c r="H29"/>
+      <c r="I29"/>
+      <c r="J29"/>
+      <c r="K29">
         <v>0.84653500000000004</v>
       </c>
-      <c r="I29" s="30">
+      <c r="L29"/>
+      <c r="M29"/>
+      <c r="N29"/>
+      <c r="O29">
         <v>0.92574299999999998</v>
       </c>
-      <c r="K29" s="31">
+      <c r="P29"/>
+      <c r="Q29"/>
+      <c r="R29"/>
+      <c r="S29">
         <v>3.7519399999999998</v>
       </c>
-      <c r="M29" s="32">
+      <c r="T29"/>
+      <c r="U29"/>
+      <c r="V29"/>
+      <c r="W29">
         <v>0.41981499999999999</v>
       </c>
-      <c r="O29" s="33">
+      <c r="X29"/>
+      <c r="Y29"/>
+      <c r="Z29"/>
+      <c r="AA29">
         <v>0.58761799999999997</v>
       </c>
-      <c r="Q29" s="34">
+      <c r="AB29"/>
+      <c r="AC29"/>
+      <c r="AD29"/>
+      <c r="AE29">
         <v>0.67326699999999995</v>
       </c>
-      <c r="S29" s="35">
+      <c r="AF29"/>
+      <c r="AG29"/>
+      <c r="AH29"/>
+      <c r="AI29">
         <v>0.80445500000000003</v>
       </c>
-      <c r="U29" s="36">
+      <c r="AJ29"/>
+      <c r="AK29"/>
+      <c r="AL29"/>
+      <c r="AM29">
         <v>7.6880699999999997</v>
       </c>
-      <c r="W29" s="37">
+      <c r="AN29"/>
+      <c r="AO29"/>
+      <c r="AP29"/>
+      <c r="AQ29">
         <v>0.75</v>
       </c>
     </row>
-    <row r="30" spans="1:23" x14ac:dyDescent="0.2">
+    <row r="30" spans="1:43" x14ac:dyDescent="0.2">
       <c r="A30" s="4"/>
       <c r="B30" s="1" t="s">
         <v>26</v>
       </c>
-      <c r="C30" s="27">
+      <c r="C30">
         <v>0.74738300000000002</v>
       </c>
-      <c r="E30" s="28">
+      <c r="D30"/>
+      <c r="E30"/>
+      <c r="F30"/>
+      <c r="G30">
         <v>0.84521599999999997</v>
       </c>
-      <c r="G30" s="29">
+      <c r="H30"/>
+      <c r="I30"/>
+      <c r="J30"/>
+      <c r="K30">
         <v>0.91176900000000005</v>
       </c>
-      <c r="I30" s="30">
+      <c r="L30"/>
+      <c r="M30"/>
+      <c r="N30"/>
+      <c r="O30">
         <v>0.96558299999999997</v>
       </c>
-      <c r="K30" s="31">
+      <c r="P30"/>
+      <c r="Q30"/>
+      <c r="R30"/>
+      <c r="S30">
         <v>2.1215799999999998</v>
       </c>
-      <c r="M30" s="32">
+      <c r="T30"/>
+      <c r="U30"/>
+      <c r="V30"/>
+      <c r="W30">
         <v>0.61332100000000001</v>
       </c>
-      <c r="O30" s="33">
+      <c r="X30"/>
+      <c r="Y30"/>
+      <c r="Z30"/>
+      <c r="AA30">
         <v>0.74233000000000005</v>
       </c>
-      <c r="Q30" s="34">
+      <c r="AB30"/>
+      <c r="AC30"/>
+      <c r="AD30"/>
+      <c r="AE30">
         <v>0.83062599999999998</v>
       </c>
-      <c r="S30" s="35">
+      <c r="AF30"/>
+      <c r="AG30"/>
+      <c r="AH30"/>
+      <c r="AI30">
         <v>0.89486100000000002</v>
       </c>
-      <c r="U30" s="36">
+      <c r="AJ30"/>
+      <c r="AK30"/>
+      <c r="AL30"/>
+      <c r="AM30">
         <v>4.1074700000000002</v>
       </c>
-      <c r="W30" s="37">
+      <c r="AN30"/>
+      <c r="AO30"/>
+      <c r="AP30"/>
+      <c r="AQ30">
         <v>0.84521299999999999</v>
       </c>
     </row>
-    <row r="31" spans="1:23" x14ac:dyDescent="0.2">
+    <row r="31" spans="1:43" x14ac:dyDescent="0.2">
       <c r="C31" s="2"/>
-      <c r="E31" s="2"/>
       <c r="G31" s="2"/>
-      <c r="I31" s="2"/>
       <c r="K31" s="2"/>
-      <c r="M31" s="2"/>
       <c r="O31" s="2"/>
-      <c r="Q31" s="2"/>
       <c r="S31" s="2"/>
-      <c r="U31" s="2"/>
-    </row>
-    <row r="32" spans="1:23" ht="16.5" x14ac:dyDescent="0.2">
+      <c r="W31" s="2"/>
+      <c r="AA31" s="2"/>
+      <c r="AE31" s="2"/>
+      <c r="AI31" s="2"/>
+      <c r="AM31" s="2"/>
+    </row>
+    <row r="32" spans="1:43" ht="16.5" x14ac:dyDescent="0.2">
       <c r="C32" s="4" t="s">
         <v>45</v>
       </c>
       <c r="D32" s="4"/>
-      <c r="E32" s="4" t="s">
-        <v>44</v>
-      </c>
+      <c r="E32" s="4"/>
       <c r="F32" s="4"/>
       <c r="G32" s="4" t="s">
-        <v>38</v>
+        <v>44</v>
       </c>
       <c r="H32" s="4"/>
-      <c r="I32" s="4" t="s">
-        <v>39</v>
-      </c>
+      <c r="I32" s="4"/>
       <c r="J32" s="4"/>
       <c r="K32" s="4" t="s">
-        <v>40</v>
+        <v>38</v>
       </c>
       <c r="L32" s="4"/>
-      <c r="M32" s="4" t="s">
-        <v>46</v>
-      </c>
+      <c r="M32" s="4"/>
       <c r="N32" s="4"/>
       <c r="O32" s="4" t="s">
-        <v>47</v>
+        <v>39</v>
       </c>
       <c r="P32" s="4"/>
-      <c r="Q32" s="4" t="s">
-        <v>43</v>
-      </c>
+      <c r="Q32" s="4"/>
       <c r="R32" s="4"/>
       <c r="S32" s="4" t="s">
+        <v>40</v>
+      </c>
+      <c r="T32" s="4"/>
+      <c r="U32" s="4"/>
+      <c r="V32" s="4"/>
+      <c r="W32" s="4" t="s">
+        <v>46</v>
+      </c>
+      <c r="X32" s="4"/>
+      <c r="Y32" s="4"/>
+      <c r="Z32" s="4"/>
+      <c r="AA32" s="4" t="s">
+        <v>47</v>
+      </c>
+      <c r="AB32" s="4"/>
+      <c r="AC32" s="4"/>
+      <c r="AD32" s="4"/>
+      <c r="AE32" s="4" t="s">
+        <v>43</v>
+      </c>
+      <c r="AF32" s="4"/>
+      <c r="AG32" s="4"/>
+      <c r="AH32" s="4"/>
+      <c r="AI32" s="4" t="s">
         <v>42</v>
       </c>
-      <c r="T32" s="4"/>
-      <c r="U32" s="4" t="s">
+      <c r="AJ32" s="4"/>
+      <c r="AK32" s="4"/>
+      <c r="AL32" s="4"/>
+      <c r="AM32" s="4" t="s">
         <v>41</v>
       </c>
-      <c r="V32" s="4"/>
-      <c r="W32" s="1" t="s">
+      <c r="AN32" s="4"/>
+      <c r="AO32" s="4"/>
+      <c r="AP32" s="4"/>
+      <c r="AQ32" s="1" t="s">
         <v>48</v>
       </c>
     </row>
-    <row r="33" spans="1:23" x14ac:dyDescent="0.2">
+    <row r="33" spans="1:43" x14ac:dyDescent="0.2">
       <c r="C33" s="1" t="s">
         <v>37</v>
       </c>
       <c r="D33" s="3" t="s">
-        <v>49</v>
-      </c>
-      <c r="E33" s="1" t="s">
-        <v>37</v>
+        <v>50</v>
+      </c>
+      <c r="E33" s="3" t="s">
+        <v>51</v>
       </c>
       <c r="F33" s="3" t="s">
-        <v>49</v>
+        <v>52</v>
       </c>
       <c r="G33" s="1" t="s">
         <v>37</v>
       </c>
       <c r="H33" s="3" t="s">
-        <v>49</v>
-      </c>
-      <c r="I33" s="1" t="s">
-        <v>37</v>
+        <v>50</v>
+      </c>
+      <c r="I33" s="3" t="s">
+        <v>51</v>
       </c>
       <c r="J33" s="3" t="s">
-        <v>49</v>
+        <v>52</v>
       </c>
       <c r="K33" s="1" t="s">
         <v>37</v>
       </c>
       <c r="L33" s="3" t="s">
-        <v>49</v>
-      </c>
-      <c r="M33" s="1" t="s">
-        <v>37</v>
+        <v>50</v>
+      </c>
+      <c r="M33" s="3" t="s">
+        <v>51</v>
       </c>
       <c r="N33" s="3" t="s">
-        <v>49</v>
+        <v>52</v>
       </c>
       <c r="O33" s="1" t="s">
         <v>37</v>
       </c>
       <c r="P33" s="3" t="s">
-        <v>49</v>
-      </c>
-      <c r="Q33" s="1" t="s">
-        <v>37</v>
+        <v>50</v>
+      </c>
+      <c r="Q33" s="3" t="s">
+        <v>51</v>
       </c>
       <c r="R33" s="3" t="s">
-        <v>49</v>
+        <v>52</v>
       </c>
       <c r="S33" s="1" t="s">
         <v>37</v>
       </c>
       <c r="T33" s="3" t="s">
-        <v>49</v>
-      </c>
-      <c r="U33" s="1" t="s">
+        <v>50</v>
+      </c>
+      <c r="U33" s="3" t="s">
+        <v>51</v>
+      </c>
+      <c r="V33" s="3" t="s">
+        <v>52</v>
+      </c>
+      <c r="W33" s="1" t="s">
         <v>37</v>
       </c>
-      <c r="V33" s="3" t="s">
-        <v>49</v>
-      </c>
-    </row>
-    <row r="34" spans="1:23" x14ac:dyDescent="0.2">
+      <c r="X33" s="3" t="s">
+        <v>50</v>
+      </c>
+      <c r="Y33" s="3" t="s">
+        <v>51</v>
+      </c>
+      <c r="Z33" s="3" t="s">
+        <v>52</v>
+      </c>
+      <c r="AA33" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="AB33" s="3" t="s">
+        <v>50</v>
+      </c>
+      <c r="AC33" s="3" t="s">
+        <v>51</v>
+      </c>
+      <c r="AD33" s="3" t="s">
+        <v>52</v>
+      </c>
+      <c r="AE33" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="AF33" s="3" t="s">
+        <v>50</v>
+      </c>
+      <c r="AG33" s="3" t="s">
+        <v>51</v>
+      </c>
+      <c r="AH33" s="3" t="s">
+        <v>52</v>
+      </c>
+      <c r="AI33" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="AJ33" s="3" t="s">
+        <v>50</v>
+      </c>
+      <c r="AK33" s="3" t="s">
+        <v>51</v>
+      </c>
+      <c r="AL33" s="3" t="s">
+        <v>52</v>
+      </c>
+      <c r="AM33" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="AN33" s="3" t="s">
+        <v>50</v>
+      </c>
+      <c r="AO33" s="3" t="s">
+        <v>51</v>
+      </c>
+      <c r="AP33" s="3" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="34" spans="1:43" x14ac:dyDescent="0.2">
       <c r="A34" s="4" t="s">
         <v>2</v>
       </c>
       <c r="B34" s="1" t="s">
         <v>28</v>
       </c>
-      <c r="C34" s="38">
+      <c r="C34">
         <v>0.61343000000000003</v>
       </c>
-      <c r="E34" s="39">
+      <c r="D34"/>
+      <c r="E34"/>
+      <c r="F34"/>
+      <c r="G34">
         <v>0.74549900000000002</v>
       </c>
-      <c r="G34" s="40">
+      <c r="H34"/>
+      <c r="I34"/>
+      <c r="J34"/>
+      <c r="K34">
         <v>0.81589999999999996</v>
       </c>
-      <c r="I34" s="41">
+      <c r="L34"/>
+      <c r="M34"/>
+      <c r="N34"/>
+      <c r="O34">
         <v>0.93723800000000002</v>
       </c>
-      <c r="K34" s="42">
+      <c r="P34"/>
+      <c r="Q34"/>
+      <c r="R34"/>
+      <c r="S34">
         <v>3.3681000000000001</v>
       </c>
-      <c r="M34" s="43">
+      <c r="T34"/>
+      <c r="U34"/>
+      <c r="V34"/>
+      <c r="W34">
         <v>0.532829</v>
       </c>
-      <c r="O34" s="44">
+      <c r="X34"/>
+      <c r="Y34"/>
+      <c r="Z34"/>
+      <c r="AA34">
         <v>0.67579699999999998</v>
       </c>
-      <c r="Q34" s="45">
+      <c r="AB34"/>
+      <c r="AC34"/>
+      <c r="AD34"/>
+      <c r="AE34">
         <v>0.76987399999999995</v>
       </c>
-      <c r="S34" s="46">
+      <c r="AF34"/>
+      <c r="AG34"/>
+      <c r="AH34"/>
+      <c r="AI34">
         <v>0.86192500000000005</v>
       </c>
-      <c r="U34" s="47">
+      <c r="AJ34"/>
+      <c r="AK34"/>
+      <c r="AL34"/>
+      <c r="AM34">
         <v>5.6340500000000002</v>
       </c>
-      <c r="W34" s="48">
+      <c r="AN34"/>
+      <c r="AO34"/>
+      <c r="AP34"/>
+      <c r="AQ34">
         <v>0.96234299999999995</v>
       </c>
     </row>
-    <row r="35" spans="1:23" x14ac:dyDescent="0.2">
+    <row r="35" spans="1:43" x14ac:dyDescent="0.2">
       <c r="A35" s="4"/>
       <c r="B35" s="1" t="s">
         <v>29</v>
       </c>
-      <c r="C35" s="38">
+      <c r="C35">
         <v>0.52681</v>
       </c>
-      <c r="E35" s="39">
+      <c r="D35"/>
+      <c r="E35"/>
+      <c r="F35"/>
+      <c r="G35">
         <v>0.70813199999999998</v>
       </c>
-      <c r="G35" s="40">
+      <c r="H35"/>
+      <c r="I35"/>
+      <c r="J35"/>
+      <c r="K35">
         <v>0.78412700000000002</v>
       </c>
-      <c r="I35" s="41">
+      <c r="L35"/>
+      <c r="M35"/>
+      <c r="N35"/>
+      <c r="O35">
         <v>0.95238100000000003</v>
       </c>
-      <c r="K35" s="42">
+      <c r="P35"/>
+      <c r="Q35"/>
+      <c r="R35"/>
+      <c r="S35">
         <v>5.5498200000000004</v>
       </c>
-      <c r="M35" s="43">
+      <c r="T35"/>
+      <c r="U35"/>
+      <c r="V35"/>
+      <c r="W35">
         <v>0.43084299999999998</v>
       </c>
-      <c r="O35" s="44">
+      <c r="X35"/>
+      <c r="Y35"/>
+      <c r="Z35"/>
+      <c r="AA35">
         <v>0.59669899999999998</v>
       </c>
-      <c r="Q35" s="45">
+      <c r="AB35"/>
+      <c r="AC35"/>
+      <c r="AD35"/>
+      <c r="AE35">
         <v>0.679365</v>
       </c>
-      <c r="S35" s="46">
+      <c r="AF35"/>
+      <c r="AG35"/>
+      <c r="AH35"/>
+      <c r="AI35">
         <v>0.83174599999999999</v>
       </c>
-      <c r="U35" s="47">
+      <c r="AJ35"/>
+      <c r="AK35"/>
+      <c r="AL35"/>
+      <c r="AM35">
         <v>8.02121</v>
       </c>
-      <c r="W35" s="48">
+      <c r="AN35"/>
+      <c r="AO35"/>
+      <c r="AP35"/>
+      <c r="AQ35">
         <v>0.98412699999999997</v>
       </c>
     </row>
-    <row r="36" spans="1:23" x14ac:dyDescent="0.2">
+    <row r="36" spans="1:43" x14ac:dyDescent="0.2">
       <c r="A36" s="4"/>
       <c r="B36" s="1" t="s">
         <v>30</v>
       </c>
-      <c r="C36" s="38">
+      <c r="C36">
         <v>0.54453399999999996</v>
       </c>
-      <c r="E36" s="39">
+      <c r="D36"/>
+      <c r="E36"/>
+      <c r="F36"/>
+      <c r="G36">
         <v>0.69699699999999998</v>
       </c>
-      <c r="G36" s="40">
+      <c r="H36"/>
+      <c r="I36"/>
+      <c r="J36"/>
+      <c r="K36">
         <v>0.78111600000000003</v>
       </c>
-      <c r="I36" s="41">
+      <c r="L36"/>
+      <c r="M36"/>
+      <c r="N36"/>
+      <c r="O36">
         <v>0.90557900000000002</v>
       </c>
-      <c r="K36" s="42">
+      <c r="P36"/>
+      <c r="Q36"/>
+      <c r="R36"/>
+      <c r="S36">
         <v>4.9109999999999996</v>
       </c>
-      <c r="M36" s="43">
+      <c r="T36"/>
+      <c r="U36"/>
+      <c r="V36"/>
+      <c r="W36">
         <v>0.3634</v>
       </c>
-      <c r="O36" s="44">
+      <c r="X36"/>
+      <c r="Y36"/>
+      <c r="Z36"/>
+      <c r="AA36">
         <v>0.52035399999999998</v>
       </c>
-      <c r="Q36" s="45">
+      <c r="AB36"/>
+      <c r="AC36"/>
+      <c r="AD36"/>
+      <c r="AE36">
         <v>0.57510700000000003</v>
       </c>
-      <c r="S36" s="46">
+      <c r="AF36"/>
+      <c r="AG36"/>
+      <c r="AH36"/>
+      <c r="AI36">
         <v>0.75107299999999999</v>
       </c>
-      <c r="U36" s="47">
+      <c r="AJ36"/>
+      <c r="AK36"/>
+      <c r="AL36"/>
+      <c r="AM36">
         <v>10.8773</v>
       </c>
-      <c r="W36" s="48">
+      <c r="AN36"/>
+      <c r="AO36"/>
+      <c r="AP36"/>
+      <c r="AQ36">
         <v>0.35622300000000001</v>
       </c>
     </row>
-    <row r="37" spans="1:23" x14ac:dyDescent="0.2">
+    <row r="37" spans="1:43" x14ac:dyDescent="0.2">
       <c r="A37" s="4"/>
       <c r="B37" s="1" t="s">
         <v>31</v>
       </c>
-      <c r="C37" s="38">
+      <c r="C37">
         <v>0.50503299999999995</v>
       </c>
-      <c r="E37" s="39">
+      <c r="D37"/>
+      <c r="E37"/>
+      <c r="F37"/>
+      <c r="G37">
         <v>0.65585599999999999</v>
       </c>
-      <c r="G37" s="40">
+      <c r="H37"/>
+      <c r="I37"/>
+      <c r="J37"/>
+      <c r="K37">
         <v>0.71</v>
       </c>
-      <c r="I37" s="41">
+      <c r="L37"/>
+      <c r="M37"/>
+      <c r="N37"/>
+      <c r="O37">
         <v>0.87666699999999997</v>
       </c>
-      <c r="K37" s="42">
+      <c r="P37"/>
+      <c r="Q37"/>
+      <c r="R37"/>
+      <c r="S37">
         <v>5.2707100000000002</v>
       </c>
-      <c r="M37" s="43">
+      <c r="T37"/>
+      <c r="U37"/>
+      <c r="V37"/>
+      <c r="W37">
         <v>0.32467800000000002</v>
       </c>
-      <c r="O37" s="44">
+      <c r="X37"/>
+      <c r="Y37"/>
+      <c r="Z37"/>
+      <c r="AA37">
         <v>0.46834199999999998</v>
       </c>
-      <c r="Q37" s="45">
+      <c r="AB37"/>
+      <c r="AC37"/>
+      <c r="AD37"/>
+      <c r="AE37">
         <v>0.53333299999999995</v>
       </c>
-      <c r="S37" s="46">
+      <c r="AF37"/>
+      <c r="AG37"/>
+      <c r="AH37"/>
+      <c r="AI37">
         <v>0.67</v>
       </c>
-      <c r="U37" s="47">
+      <c r="AJ37"/>
+      <c r="AK37"/>
+      <c r="AL37"/>
+      <c r="AM37">
         <v>12.8706</v>
       </c>
-      <c r="W37" s="48">
+      <c r="AN37"/>
+      <c r="AO37"/>
+      <c r="AP37"/>
+      <c r="AQ37">
         <v>0.97</v>
       </c>
     </row>
-    <row r="38" spans="1:23" x14ac:dyDescent="0.2">
+    <row r="38" spans="1:43" x14ac:dyDescent="0.2">
       <c r="A38" s="4"/>
       <c r="B38" s="1" t="s">
         <v>32</v>
       </c>
-      <c r="C38" s="38">
+      <c r="C38">
         <v>0.66372100000000001</v>
       </c>
-      <c r="E38" s="39">
+      <c r="D38"/>
+      <c r="E38"/>
+      <c r="F38"/>
+      <c r="G38">
         <v>0.78290899999999997</v>
       </c>
-      <c r="G38" s="40">
+      <c r="H38"/>
+      <c r="I38"/>
+      <c r="J38"/>
+      <c r="K38">
         <v>0.865591</v>
       </c>
-      <c r="I38" s="41">
+      <c r="L38"/>
+      <c r="M38"/>
+      <c r="N38"/>
+      <c r="O38">
         <v>0.92473099999999997</v>
       </c>
-      <c r="K38" s="42">
+      <c r="P38"/>
+      <c r="Q38"/>
+      <c r="R38"/>
+      <c r="S38">
         <v>3.1894999999999998</v>
       </c>
-      <c r="M38" s="43">
+      <c r="T38"/>
+      <c r="U38"/>
+      <c r="V38"/>
+      <c r="W38">
         <v>0.53341700000000003</v>
       </c>
-      <c r="O38" s="44">
+      <c r="X38"/>
+      <c r="Y38"/>
+      <c r="Z38"/>
+      <c r="AA38">
         <v>0.67167900000000003</v>
       </c>
-      <c r="Q38" s="45">
+      <c r="AB38"/>
+      <c r="AC38"/>
+      <c r="AD38"/>
+      <c r="AE38">
         <v>0.75</v>
       </c>
-      <c r="S38" s="46">
+      <c r="AF38"/>
+      <c r="AG38"/>
+      <c r="AH38"/>
+      <c r="AI38">
         <v>0.84139799999999998</v>
       </c>
-      <c r="U38" s="47">
+      <c r="AJ38"/>
+      <c r="AK38"/>
+      <c r="AL38"/>
+      <c r="AM38">
         <v>4.8856700000000002</v>
       </c>
-      <c r="W38" s="48">
+      <c r="AN38"/>
+      <c r="AO38"/>
+      <c r="AP38"/>
+      <c r="AQ38">
         <v>0.97580599999999995</v>
       </c>
     </row>
-    <row r="39" spans="1:23" x14ac:dyDescent="0.2">
+    <row r="39" spans="1:43" x14ac:dyDescent="0.2">
       <c r="A39" s="4"/>
       <c r="B39" s="1" t="s">
         <v>33</v>
       </c>
-      <c r="C39" s="38">
+      <c r="C39">
         <v>0.44587500000000002</v>
       </c>
-      <c r="E39" s="39">
+      <c r="D39"/>
+      <c r="E39"/>
+      <c r="F39"/>
+      <c r="G39">
         <v>0.63071200000000005</v>
       </c>
-      <c r="G39" s="40">
+      <c r="H39"/>
+      <c r="I39"/>
+      <c r="J39"/>
+      <c r="K39">
         <v>0.70588200000000001</v>
       </c>
-      <c r="I39" s="41">
+      <c r="L39"/>
+      <c r="M39"/>
+      <c r="N39"/>
+      <c r="O39">
         <v>0.90588199999999997</v>
       </c>
-      <c r="K39" s="42">
+      <c r="P39"/>
+      <c r="Q39"/>
+      <c r="R39"/>
+      <c r="S39">
         <v>7.1504200000000004</v>
       </c>
-      <c r="M39" s="43">
+      <c r="T39"/>
+      <c r="U39"/>
+      <c r="V39"/>
+      <c r="W39">
         <v>0.34151599999999999</v>
       </c>
-      <c r="O39" s="44">
+      <c r="X39"/>
+      <c r="Y39"/>
+      <c r="Z39"/>
+      <c r="AA39">
         <v>0.48979</v>
       </c>
-      <c r="Q39" s="45">
+      <c r="AB39"/>
+      <c r="AC39"/>
+      <c r="AD39"/>
+      <c r="AE39">
         <v>0.56764700000000001</v>
       </c>
-      <c r="S39" s="46">
+      <c r="AF39"/>
+      <c r="AG39"/>
+      <c r="AH39"/>
+      <c r="AI39">
         <v>0.68529399999999996</v>
       </c>
-      <c r="U39" s="47">
+      <c r="AJ39"/>
+      <c r="AK39"/>
+      <c r="AL39"/>
+      <c r="AM39">
         <v>10.5829</v>
       </c>
-      <c r="W39" s="48">
+      <c r="AN39"/>
+      <c r="AO39"/>
+      <c r="AP39"/>
+      <c r="AQ39">
         <v>0.98235300000000003</v>
       </c>
     </row>
-    <row r="40" spans="1:23" x14ac:dyDescent="0.2">
+    <row r="40" spans="1:43" x14ac:dyDescent="0.2">
       <c r="A40" s="4"/>
       <c r="B40" s="1" t="s">
         <v>34</v>
       </c>
-      <c r="C40" s="38">
+      <c r="C40">
         <v>0.62507999999999997</v>
       </c>
-      <c r="E40" s="39">
+      <c r="D40"/>
+      <c r="E40"/>
+      <c r="F40"/>
+      <c r="G40">
         <v>0.76486299999999996</v>
       </c>
-      <c r="G40" s="40">
+      <c r="H40"/>
+      <c r="I40"/>
+      <c r="J40"/>
+      <c r="K40">
         <v>0.85567000000000004</v>
       </c>
-      <c r="I40" s="41">
+      <c r="L40"/>
+      <c r="M40"/>
+      <c r="N40"/>
+      <c r="O40">
         <v>0.95360800000000001</v>
       </c>
-      <c r="K40" s="42">
+      <c r="P40"/>
+      <c r="Q40"/>
+      <c r="R40"/>
+      <c r="S40">
         <v>3.58047</v>
       </c>
-      <c r="M40" s="43">
+      <c r="T40"/>
+      <c r="U40"/>
+      <c r="V40"/>
+      <c r="W40">
         <v>0.50500500000000004</v>
       </c>
-      <c r="O40" s="44">
+      <c r="X40"/>
+      <c r="Y40"/>
+      <c r="Z40"/>
+      <c r="AA40">
         <v>0.652312</v>
       </c>
-      <c r="Q40" s="45">
+      <c r="AB40"/>
+      <c r="AC40"/>
+      <c r="AD40"/>
+      <c r="AE40">
         <v>0.76288699999999998</v>
       </c>
-      <c r="S40" s="46">
+      <c r="AF40"/>
+      <c r="AG40"/>
+      <c r="AH40"/>
+      <c r="AI40">
         <v>0.81958799999999998</v>
       </c>
-      <c r="U40" s="47">
+      <c r="AJ40"/>
+      <c r="AK40"/>
+      <c r="AL40"/>
+      <c r="AM40">
         <v>5.7966800000000003</v>
       </c>
-      <c r="W40" s="48">
+      <c r="AN40"/>
+      <c r="AO40"/>
+      <c r="AP40"/>
+      <c r="AQ40">
         <v>0.97422699999999995</v>
       </c>
     </row>
-    <row r="41" spans="1:23" x14ac:dyDescent="0.2">
+    <row r="41" spans="1:43" x14ac:dyDescent="0.2">
       <c r="A41" s="4"/>
       <c r="B41" s="1" t="s">
         <v>35</v>
       </c>
-      <c r="C41" s="38">
+      <c r="C41">
         <v>0.47102699999999997</v>
       </c>
-      <c r="E41" s="39">
+      <c r="D41"/>
+      <c r="E41"/>
+      <c r="F41"/>
+      <c r="G41">
         <v>0.64396699999999996</v>
       </c>
-      <c r="G41" s="40">
+      <c r="H41"/>
+      <c r="I41"/>
+      <c r="J41"/>
+      <c r="K41">
         <v>0.69198300000000001</v>
       </c>
-      <c r="I41" s="41">
+      <c r="L41"/>
+      <c r="M41"/>
+      <c r="N41"/>
+      <c r="O41">
         <v>0.89029499999999995</v>
       </c>
-      <c r="K41" s="42">
+      <c r="P41"/>
+      <c r="Q41"/>
+      <c r="R41"/>
+      <c r="S41">
         <v>7.1017599999999996</v>
       </c>
-      <c r="M41" s="43">
+      <c r="T41"/>
+      <c r="U41"/>
+      <c r="V41"/>
+      <c r="W41">
         <v>0.33553300000000003</v>
       </c>
-      <c r="O41" s="44">
+      <c r="X41"/>
+      <c r="Y41"/>
+      <c r="Z41"/>
+      <c r="AA41">
         <v>0.495064</v>
       </c>
-      <c r="Q41" s="45">
+      <c r="AB41"/>
+      <c r="AC41"/>
+      <c r="AD41"/>
+      <c r="AE41">
         <v>0.54430400000000001</v>
       </c>
-      <c r="S41" s="46">
+      <c r="AF41"/>
+      <c r="AG41"/>
+      <c r="AH41"/>
+      <c r="AI41">
         <v>0.72573799999999999</v>
       </c>
-      <c r="U41" s="47">
+      <c r="AJ41"/>
+      <c r="AK41"/>
+      <c r="AL41"/>
+      <c r="AM41">
         <v>11.8924</v>
       </c>
-      <c r="W41" s="48">
+      <c r="AN41"/>
+      <c r="AO41"/>
+      <c r="AP41"/>
+      <c r="AQ41">
         <v>0.83966200000000002</v>
       </c>
     </row>
-    <row r="42" spans="1:23" x14ac:dyDescent="0.2">
+    <row r="42" spans="1:43" x14ac:dyDescent="0.2">
       <c r="A42" s="4"/>
       <c r="B42" s="1" t="s">
         <v>36</v>
       </c>
-      <c r="C42" s="38">
+      <c r="C42">
         <v>0.25553599999999999</v>
       </c>
-      <c r="E42" s="39">
+      <c r="D42"/>
+      <c r="E42"/>
+      <c r="F42"/>
+      <c r="G42">
         <v>0.43617699999999998</v>
       </c>
-      <c r="G42" s="40">
+      <c r="H42"/>
+      <c r="I42"/>
+      <c r="J42"/>
+      <c r="K42">
         <v>0.43378100000000003</v>
       </c>
-      <c r="I42" s="41">
+      <c r="L42"/>
+      <c r="M42"/>
+      <c r="N42"/>
+      <c r="O42">
         <v>0.760077</v>
       </c>
-      <c r="K42" s="42">
+      <c r="P42"/>
+      <c r="Q42"/>
+      <c r="R42"/>
+      <c r="S42">
         <v>17.5383</v>
       </c>
-      <c r="M42" s="43">
+      <c r="T42"/>
+      <c r="U42"/>
+      <c r="V42"/>
+      <c r="W42">
         <v>0.13550300000000001</v>
       </c>
-      <c r="O42" s="44">
+      <c r="X42"/>
+      <c r="Y42"/>
+      <c r="Z42"/>
+      <c r="AA42">
         <v>0.22455900000000001</v>
       </c>
-      <c r="Q42" s="45">
+      <c r="AB42"/>
+      <c r="AC42"/>
+      <c r="AD42"/>
+      <c r="AE42">
         <v>0.24760099999999999</v>
       </c>
-      <c r="S42" s="46">
+      <c r="AF42"/>
+      <c r="AG42"/>
+      <c r="AH42"/>
+      <c r="AI42">
         <v>0.37811899999999998</v>
       </c>
-      <c r="U42" s="47">
+      <c r="AJ42"/>
+      <c r="AK42"/>
+      <c r="AL42"/>
+      <c r="AM42">
         <v>50.596800000000002</v>
       </c>
-      <c r="W42" s="48">
+      <c r="AN42"/>
+      <c r="AO42"/>
+      <c r="AP42"/>
+      <c r="AQ42">
         <v>0.62763899999999995</v>
       </c>
     </row>
-    <row r="43" spans="1:23" x14ac:dyDescent="0.2">
+    <row r="43" spans="1:43" x14ac:dyDescent="0.2">
       <c r="A43" s="4"/>
       <c r="B43" s="1" t="s">
         <v>26</v>
       </c>
-      <c r="C43" s="38">
+      <c r="C43">
         <v>0.51678299999999999</v>
       </c>
-      <c r="E43" s="39">
+      <c r="D43"/>
+      <c r="E43"/>
+      <c r="F43"/>
+      <c r="G43">
         <v>0.67390099999999997</v>
       </c>
-      <c r="G43" s="40">
+      <c r="H43"/>
+      <c r="I43"/>
+      <c r="J43"/>
+      <c r="K43">
         <v>0.738228</v>
       </c>
-      <c r="I43" s="41">
+      <c r="L43"/>
+      <c r="M43"/>
+      <c r="N43"/>
+      <c r="O43">
         <v>0.90071800000000002</v>
       </c>
-      <c r="K43" s="42">
+      <c r="P43"/>
+      <c r="Q43"/>
+      <c r="R43"/>
+      <c r="S43">
         <v>6.4066799999999997</v>
       </c>
-      <c r="M43" s="43">
+      <c r="T43"/>
+      <c r="U43"/>
+      <c r="V43"/>
+      <c r="W43">
         <v>0.38919199999999998</v>
       </c>
-      <c r="O43" s="44">
+      <c r="X43"/>
+      <c r="Y43"/>
+      <c r="Z43"/>
+      <c r="AA43">
         <v>0.53273300000000001</v>
       </c>
-      <c r="Q43" s="45">
+      <c r="AB43"/>
+      <c r="AC43"/>
+      <c r="AD43"/>
+      <c r="AE43">
         <v>0.60334600000000005</v>
       </c>
-      <c r="S43" s="46">
+      <c r="AF43"/>
+      <c r="AG43"/>
+      <c r="AH43"/>
+      <c r="AI43">
         <v>0.72943100000000005</v>
       </c>
-      <c r="U43" s="47">
+      <c r="AJ43"/>
+      <c r="AK43"/>
+      <c r="AL43"/>
+      <c r="AM43">
         <v>13.462</v>
       </c>
-      <c r="W43" s="48">
+      <c r="AN43"/>
+      <c r="AO43"/>
+      <c r="AP43"/>
+      <c r="AQ43">
         <v>0.85248699999999999</v>
       </c>
     </row>
-    <row r="45" spans="1:23" ht="16.5" x14ac:dyDescent="0.2">
+    <row r="45" spans="1:43" ht="16.5" x14ac:dyDescent="0.2">
       <c r="C45" s="4" t="s">
         <v>45</v>
       </c>
       <c r="D45" s="4"/>
-      <c r="E45" s="4" t="s">
-        <v>44</v>
-      </c>
+      <c r="E45" s="4"/>
       <c r="F45" s="4"/>
       <c r="G45" s="4" t="s">
-        <v>38</v>
+        <v>44</v>
       </c>
       <c r="H45" s="4"/>
-      <c r="I45" s="4" t="s">
-        <v>39</v>
-      </c>
+      <c r="I45" s="4"/>
       <c r="J45" s="4"/>
       <c r="K45" s="4" t="s">
-        <v>40</v>
+        <v>38</v>
       </c>
       <c r="L45" s="4"/>
-      <c r="M45" s="4" t="s">
-        <v>46</v>
-      </c>
+      <c r="M45" s="4"/>
       <c r="N45" s="4"/>
       <c r="O45" s="4" t="s">
-        <v>47</v>
+        <v>39</v>
       </c>
       <c r="P45" s="4"/>
-      <c r="Q45" s="4" t="s">
-        <v>43</v>
-      </c>
+      <c r="Q45" s="4"/>
       <c r="R45" s="4"/>
       <c r="S45" s="4" t="s">
+        <v>40</v>
+      </c>
+      <c r="T45" s="4"/>
+      <c r="U45" s="4"/>
+      <c r="V45" s="4"/>
+      <c r="W45" s="4" t="s">
+        <v>46</v>
+      </c>
+      <c r="X45" s="4"/>
+      <c r="Y45" s="4"/>
+      <c r="Z45" s="4"/>
+      <c r="AA45" s="4" t="s">
+        <v>47</v>
+      </c>
+      <c r="AB45" s="4"/>
+      <c r="AC45" s="4"/>
+      <c r="AD45" s="4"/>
+      <c r="AE45" s="4" t="s">
+        <v>43</v>
+      </c>
+      <c r="AF45" s="4"/>
+      <c r="AG45" s="4"/>
+      <c r="AH45" s="4"/>
+      <c r="AI45" s="4" t="s">
         <v>42</v>
       </c>
-      <c r="T45" s="4"/>
-      <c r="U45" s="4" t="s">
+      <c r="AJ45" s="4"/>
+      <c r="AK45" s="4"/>
+      <c r="AL45" s="4"/>
+      <c r="AM45" s="4" t="s">
         <v>41</v>
       </c>
-      <c r="V45" s="4"/>
-      <c r="W45" s="1" t="s">
+      <c r="AN45" s="4"/>
+      <c r="AO45" s="4"/>
+      <c r="AP45" s="4"/>
+      <c r="AQ45" s="1" t="s">
         <v>48</v>
       </c>
     </row>
-    <row r="46" spans="1:23" x14ac:dyDescent="0.2">
+    <row r="46" spans="1:43" ht="16.5" x14ac:dyDescent="0.2">
       <c r="C46" s="1" t="s">
         <v>37</v>
       </c>
       <c r="D46" s="3" t="s">
-        <v>49</v>
-      </c>
-      <c r="E46" s="1" t="s">
-        <v>37</v>
+        <v>50</v>
+      </c>
+      <c r="E46" s="3" t="s">
+        <v>51</v>
       </c>
       <c r="F46" s="3" t="s">
-        <v>49</v>
+        <v>52</v>
       </c>
       <c r="G46" s="1" t="s">
         <v>37</v>
       </c>
       <c r="H46" s="3" t="s">
-        <v>49</v>
-      </c>
-      <c r="I46" s="1" t="s">
-        <v>37</v>
+        <v>50</v>
+      </c>
+      <c r="I46" s="3" t="s">
+        <v>51</v>
       </c>
       <c r="J46" s="3" t="s">
-        <v>49</v>
+        <v>52</v>
       </c>
       <c r="K46" s="1" t="s">
         <v>37</v>
       </c>
       <c r="L46" s="3" t="s">
-        <v>49</v>
-      </c>
-      <c r="M46" s="1" t="s">
-        <v>37</v>
+        <v>50</v>
+      </c>
+      <c r="M46" s="3" t="s">
+        <v>51</v>
       </c>
       <c r="N46" s="3" t="s">
-        <v>49</v>
+        <v>52</v>
       </c>
       <c r="O46" s="1" t="s">
         <v>37</v>
       </c>
       <c r="P46" s="3" t="s">
-        <v>49</v>
-      </c>
-      <c r="Q46" s="1" t="s">
-        <v>37</v>
+        <v>50</v>
+      </c>
+      <c r="Q46" s="3" t="s">
+        <v>51</v>
       </c>
       <c r="R46" s="3" t="s">
-        <v>49</v>
+        <v>52</v>
       </c>
       <c r="S46" s="1" t="s">
         <v>37</v>
       </c>
       <c r="T46" s="3" t="s">
+        <v>50</v>
+      </c>
+      <c r="U46" s="3" t="s">
+        <v>51</v>
+      </c>
+      <c r="V46" s="3" t="s">
+        <v>52</v>
+      </c>
+      <c r="W46" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="X46" s="3" t="s">
+        <v>50</v>
+      </c>
+      <c r="Y46" s="3" t="s">
+        <v>51</v>
+      </c>
+      <c r="Z46" s="3" t="s">
+        <v>52</v>
+      </c>
+      <c r="AA46" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="AB46" s="3" t="s">
+        <v>50</v>
+      </c>
+      <c r="AC46" s="3" t="s">
+        <v>51</v>
+      </c>
+      <c r="AD46" s="3" t="s">
+        <v>52</v>
+      </c>
+      <c r="AE46" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="AF46" s="3" t="s">
+        <v>50</v>
+      </c>
+      <c r="AG46" s="3" t="s">
+        <v>51</v>
+      </c>
+      <c r="AH46" s="3" t="s">
+        <v>52</v>
+      </c>
+      <c r="AI46" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="AJ46" s="3" t="s">
+        <v>50</v>
+      </c>
+      <c r="AK46" s="3" t="s">
+        <v>51</v>
+      </c>
+      <c r="AL46" s="3" t="s">
+        <v>52</v>
+      </c>
+      <c r="AM46" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="AN46" s="1" t="s">
+        <v>41</v>
+      </c>
+      <c r="AO46" s="3" t="s">
+        <v>51</v>
+      </c>
+      <c r="AP46" s="3" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="47" spans="1:43" x14ac:dyDescent="0.2">
+      <c r="A47" s="4" t="s">
         <v>49</v>
-      </c>
-      <c r="U46" s="1" t="s">
-        <v>37</v>
-      </c>
-      <c r="V46" s="3" t="s">
-        <v>49</v>
-      </c>
-    </row>
-    <row r="47" spans="1:23" x14ac:dyDescent="0.2">
-      <c r="A47" s="4" t="s">
-        <v>50</v>
       </c>
       <c r="B47" s="1">
         <v>1</v>
       </c>
-      <c r="C47" s="49">
+      <c r="C47">
         <v>0.24513499999999999</v>
       </c>
-      <c r="E47" s="50">
+      <c r="D47"/>
+      <c r="E47"/>
+      <c r="G47">
         <v>0.40031299999999997</v>
       </c>
-      <c r="G47" s="51">
+      <c r="H47"/>
+      <c r="I47"/>
+      <c r="K47">
         <v>0.44185999999999998</v>
       </c>
-      <c r="I47" s="52">
+      <c r="L47"/>
+      <c r="M47"/>
+      <c r="O47">
         <v>0.66046499999999997</v>
       </c>
-      <c r="K47" s="53">
+      <c r="P47"/>
+      <c r="Q47"/>
+      <c r="S47">
         <v>19.180900000000001</v>
       </c>
-      <c r="M47" s="54">
+      <c r="T47"/>
+      <c r="U47"/>
+      <c r="W47">
         <v>9.7111699999999995E-2</v>
       </c>
-      <c r="O47" s="55">
+      <c r="X47"/>
+      <c r="Y47"/>
+      <c r="AA47">
         <v>0.18609800000000001</v>
       </c>
-      <c r="Q47" s="56">
+      <c r="AB47"/>
+      <c r="AC47"/>
+      <c r="AE47">
         <v>0.17674400000000001</v>
       </c>
-      <c r="S47" s="57">
+      <c r="AF47"/>
+      <c r="AG47"/>
+      <c r="AI47">
         <v>0.36744199999999999</v>
       </c>
-      <c r="U47" s="58">
+      <c r="AJ47"/>
+      <c r="AK47"/>
+      <c r="AM47">
         <v>41.813899999999997</v>
       </c>
-      <c r="W47" s="59">
+      <c r="AN47"/>
+      <c r="AO47"/>
+      <c r="AQ47">
         <v>0.41395300000000002</v>
       </c>
     </row>
-    <row r="48" spans="1:23" x14ac:dyDescent="0.2">
+    <row r="48" spans="1:43" x14ac:dyDescent="0.2">
       <c r="A48" s="4"/>
       <c r="B48" s="1">
         <v>2</v>
       </c>
-      <c r="C48" s="49">
+      <c r="C48">
         <v>0.35038399999999997</v>
       </c>
-      <c r="E48" s="50">
+      <c r="D48"/>
+      <c r="E48"/>
+      <c r="G48">
         <v>0.54964400000000002</v>
       </c>
-      <c r="G48" s="51">
+      <c r="H48"/>
+      <c r="I48"/>
+      <c r="K48">
         <v>0.53968300000000002</v>
       </c>
-      <c r="I48" s="52">
+      <c r="L48"/>
+      <c r="M48"/>
+      <c r="O48">
         <v>0.85714299999999999</v>
       </c>
-      <c r="K48" s="53">
+      <c r="P48"/>
+      <c r="Q48"/>
+      <c r="S48">
         <v>12.579499999999999</v>
       </c>
-      <c r="M48" s="54">
+      <c r="T48"/>
+      <c r="U48"/>
+      <c r="W48">
         <v>9.4204499999999997E-2</v>
       </c>
-      <c r="O48" s="55">
+      <c r="X48"/>
+      <c r="Y48"/>
+      <c r="AA48">
         <v>0.19137799999999999</v>
       </c>
-      <c r="Q48" s="56">
+      <c r="AB48"/>
+      <c r="AC48"/>
+      <c r="AE48">
         <v>0.19841300000000001</v>
       </c>
-      <c r="S48" s="57">
+      <c r="AF48"/>
+      <c r="AG48"/>
+      <c r="AI48">
         <v>0.34127000000000002</v>
       </c>
-      <c r="U48" s="58">
+      <c r="AJ48"/>
+      <c r="AK48"/>
+      <c r="AM48">
         <v>56.003999999999998</v>
       </c>
-      <c r="W48" s="59">
+      <c r="AN48"/>
+      <c r="AO48"/>
+      <c r="AQ48">
         <v>0.57936500000000002</v>
       </c>
     </row>
-    <row r="49" spans="1:23" x14ac:dyDescent="0.2">
+    <row r="49" spans="1:43" x14ac:dyDescent="0.2">
       <c r="A49" s="4"/>
       <c r="B49" s="1">
         <v>3</v>
       </c>
-      <c r="C49" s="49">
+      <c r="C49">
         <v>0.217727</v>
       </c>
-      <c r="E49" s="50">
+      <c r="D49"/>
+      <c r="E49"/>
+      <c r="G49">
         <v>0.40834599999999999</v>
       </c>
-      <c r="G49" s="51">
+      <c r="H49"/>
+      <c r="I49"/>
+      <c r="K49">
         <v>0.40562199999999998</v>
       </c>
-      <c r="I49" s="52">
+      <c r="L49"/>
+      <c r="M49"/>
+      <c r="O49">
         <v>0.71887599999999996</v>
       </c>
-      <c r="K49" s="53">
+      <c r="P49"/>
+      <c r="Q49"/>
+      <c r="S49">
         <v>18.1374</v>
       </c>
-      <c r="M49" s="54">
+      <c r="T49"/>
+      <c r="U49"/>
+      <c r="W49">
         <v>5.6207899999999998E-2</v>
       </c>
-      <c r="O49" s="55">
+      <c r="X49"/>
+      <c r="Y49"/>
+      <c r="AA49">
         <v>0.14951600000000001</v>
       </c>
-      <c r="Q49" s="56">
+      <c r="AB49"/>
+      <c r="AC49"/>
+      <c r="AE49">
         <v>0.14457800000000001</v>
       </c>
-      <c r="S49" s="57">
+      <c r="AF49"/>
+      <c r="AG49"/>
+      <c r="AI49">
         <v>0.30923699999999998</v>
       </c>
-      <c r="U49" s="58">
+      <c r="AJ49"/>
+      <c r="AK49"/>
+      <c r="AM49">
         <v>48.738399999999999</v>
       </c>
-      <c r="W49" s="59">
+      <c r="AN49"/>
+      <c r="AO49"/>
+      <c r="AQ49">
         <v>0.313253</v>
       </c>
     </row>
-    <row r="50" spans="1:23" x14ac:dyDescent="0.2">
+    <row r="50" spans="1:43" x14ac:dyDescent="0.2">
       <c r="A50" s="4"/>
       <c r="B50" s="1">
         <v>4</v>
       </c>
-      <c r="C50" s="49">
+      <c r="C50">
         <v>0.25409500000000002</v>
       </c>
-      <c r="E50" s="50">
+      <c r="D50"/>
+      <c r="E50"/>
+      <c r="G50">
         <v>0.436222</v>
       </c>
-      <c r="G50" s="51">
+      <c r="H50"/>
+      <c r="I50"/>
+      <c r="K50">
         <v>0.45142900000000002</v>
       </c>
-      <c r="I50" s="52">
+      <c r="L50"/>
+      <c r="M50"/>
+      <c r="O50">
         <v>0.73714299999999999</v>
       </c>
-      <c r="K50" s="53">
+      <c r="P50"/>
+      <c r="Q50"/>
+      <c r="S50">
         <v>16.652799999999999</v>
       </c>
-      <c r="M50" s="54">
+      <c r="T50"/>
+      <c r="U50"/>
+      <c r="W50">
         <v>8.1828200000000004E-2</v>
       </c>
-      <c r="O50" s="55">
+      <c r="X50"/>
+      <c r="Y50"/>
+      <c r="AA50">
         <v>0.17355400000000001</v>
       </c>
-      <c r="Q50" s="56">
+      <c r="AB50"/>
+      <c r="AC50"/>
+      <c r="AE50">
         <v>0.18857099999999999</v>
       </c>
-      <c r="S50" s="57">
+      <c r="AF50"/>
+      <c r="AG50"/>
+      <c r="AI50">
         <v>0.35428599999999999</v>
       </c>
-      <c r="U50" s="58">
+      <c r="AJ50"/>
+      <c r="AK50"/>
+      <c r="AM50">
         <v>44.015799999999999</v>
       </c>
-      <c r="W50" s="59">
+      <c r="AN50"/>
+      <c r="AO50"/>
+      <c r="AQ50">
         <v>0.29142899999999999</v>
       </c>
     </row>
-    <row r="51" spans="1:23" x14ac:dyDescent="0.2">
+    <row r="51" spans="1:43" x14ac:dyDescent="0.2">
       <c r="A51" s="4"/>
       <c r="B51" s="1">
         <v>5</v>
       </c>
-      <c r="C51" s="49">
+      <c r="C51">
         <v>0.334063</v>
       </c>
-      <c r="E51" s="50">
+      <c r="D51"/>
+      <c r="E51"/>
+      <c r="G51">
         <v>0.51704799999999995</v>
       </c>
-      <c r="G51" s="51">
+      <c r="H51"/>
+      <c r="I51"/>
+      <c r="K51">
         <v>0.52112700000000001</v>
       </c>
-      <c r="I51" s="52">
+      <c r="L51"/>
+      <c r="M51"/>
+      <c r="O51">
         <v>0.838028</v>
       </c>
-      <c r="K51" s="53">
+      <c r="P51"/>
+      <c r="Q51"/>
+      <c r="S51">
         <v>13.414400000000001</v>
       </c>
-      <c r="M51" s="54">
+      <c r="T51"/>
+      <c r="U51"/>
+      <c r="W51">
         <v>3.5889999999999998E-2</v>
       </c>
-      <c r="O51" s="55">
+      <c r="X51"/>
+      <c r="Y51"/>
+      <c r="AA51">
         <v>8.9498499999999995E-2</v>
       </c>
-      <c r="Q51" s="56">
+      <c r="AB51"/>
+      <c r="AC51"/>
+      <c r="AE51">
         <v>9.15493E-2</v>
       </c>
-      <c r="S51" s="57">
+      <c r="AF51"/>
+      <c r="AG51"/>
+      <c r="AI51">
         <v>0.21831</v>
       </c>
-      <c r="U51" s="58">
+      <c r="AJ51"/>
+      <c r="AK51"/>
+      <c r="AM51">
         <v>63.124699999999997</v>
       </c>
-      <c r="W51" s="59">
+      <c r="AN51"/>
+      <c r="AO51"/>
+      <c r="AQ51">
         <v>0.63380300000000001</v>
       </c>
     </row>
-    <row r="52" spans="1:23" x14ac:dyDescent="0.2">
+    <row r="52" spans="1:43" x14ac:dyDescent="0.2">
       <c r="A52" s="4"/>
       <c r="B52" s="1">
         <v>6</v>
       </c>
-      <c r="C52" s="49">
+      <c r="C52">
         <v>0.19504299999999999</v>
       </c>
-      <c r="E52" s="50">
+      <c r="D52"/>
+      <c r="E52"/>
+      <c r="G52">
         <v>0.35895700000000003</v>
       </c>
-      <c r="G52" s="51">
+      <c r="H52"/>
+      <c r="I52"/>
+      <c r="K52">
         <v>0.375</v>
       </c>
-      <c r="I52" s="52">
+      <c r="L52"/>
+      <c r="M52"/>
+      <c r="O52">
         <v>0.65972200000000003</v>
       </c>
-      <c r="K52" s="53">
+      <c r="P52"/>
+      <c r="Q52"/>
+      <c r="S52">
         <v>21.659199999999998</v>
       </c>
-      <c r="M52" s="54">
+      <c r="T52"/>
+      <c r="U52"/>
+      <c r="W52">
         <v>5.3452199999999998E-2</v>
       </c>
-      <c r="O52" s="55">
+      <c r="X52"/>
+      <c r="Y52"/>
+      <c r="AA52">
         <v>0.132664</v>
       </c>
-      <c r="Q52" s="56">
+      <c r="AB52"/>
+      <c r="AC52"/>
+      <c r="AE52">
         <v>0.13888900000000001</v>
       </c>
-      <c r="S52" s="57">
+      <c r="AF52"/>
+      <c r="AG52"/>
+      <c r="AI52">
         <v>0.27777800000000002</v>
       </c>
-      <c r="U52" s="58">
+      <c r="AJ52"/>
+      <c r="AK52"/>
+      <c r="AM52">
         <v>49.741199999999999</v>
       </c>
-      <c r="W52" s="59">
+      <c r="AN52"/>
+      <c r="AO52"/>
+      <c r="AQ52">
         <v>0.34027800000000002</v>
       </c>
     </row>
-    <row r="53" spans="1:23" x14ac:dyDescent="0.2">
+    <row r="53" spans="1:43" x14ac:dyDescent="0.2">
       <c r="A53" s="4"/>
       <c r="B53" s="1">
         <v>7</v>
       </c>
-      <c r="C53" s="49">
+      <c r="C53">
         <v>0.82116800000000001</v>
       </c>
-      <c r="E53" s="50">
+      <c r="D53"/>
+      <c r="E53"/>
+      <c r="G53">
         <v>0.91058399999999995</v>
       </c>
-      <c r="G53" s="51">
+      <c r="H53"/>
+      <c r="I53"/>
+      <c r="K53">
         <v>1</v>
       </c>
-      <c r="I53" s="52">
+      <c r="L53"/>
+      <c r="M53"/>
+      <c r="O53">
         <v>1</v>
       </c>
-      <c r="K53" s="53">
+      <c r="P53"/>
+      <c r="Q53"/>
+      <c r="S53">
         <v>1.4598800000000001</v>
       </c>
-      <c r="M53" s="54">
+      <c r="T53"/>
+      <c r="U53"/>
+      <c r="W53">
         <v>0</v>
       </c>
-      <c r="O53" s="55">
+      <c r="X53"/>
+      <c r="Y53"/>
+      <c r="AA53">
         <v>0.107838</v>
       </c>
-      <c r="Q53" s="56">
+      <c r="AB53"/>
+      <c r="AC53"/>
+      <c r="AE53">
         <v>0</v>
       </c>
-      <c r="S53" s="57">
+      <c r="AF53"/>
+      <c r="AG53"/>
+      <c r="AI53">
         <v>0.375</v>
       </c>
-      <c r="U53" s="58">
+      <c r="AJ53"/>
+      <c r="AK53"/>
+      <c r="AM53">
         <v>35.643999999999998</v>
       </c>
-      <c r="W53" s="59">
+      <c r="AN53"/>
+      <c r="AO53"/>
+      <c r="AQ53">
         <v>0.875</v>
       </c>
     </row>
-    <row r="54" spans="1:23" x14ac:dyDescent="0.2">
+    <row r="54" spans="1:43" x14ac:dyDescent="0.2">
       <c r="A54" s="4"/>
       <c r="B54" s="1">
         <v>8</v>
       </c>
-      <c r="C54" s="49">
+      <c r="C54">
         <v>0.48147000000000001</v>
       </c>
-      <c r="E54" s="50">
+      <c r="D54"/>
+      <c r="E54"/>
+      <c r="G54">
         <v>0.68688700000000003</v>
       </c>
-      <c r="G54" s="51">
+      <c r="H54"/>
+      <c r="I54"/>
+      <c r="K54">
         <v>0.747664</v>
       </c>
-      <c r="I54" s="52">
+      <c r="L54"/>
+      <c r="M54"/>
+      <c r="O54">
         <v>0.98130799999999996</v>
       </c>
-      <c r="K54" s="53">
+      <c r="P54"/>
+      <c r="Q54"/>
+      <c r="S54">
         <v>6.8929099999999996</v>
       </c>
-      <c r="M54" s="54">
+      <c r="T54"/>
+      <c r="U54"/>
+      <c r="W54">
         <v>0.29238500000000001</v>
       </c>
-      <c r="O54" s="55">
+      <c r="X54"/>
+      <c r="Y54"/>
+      <c r="AA54">
         <v>0.41209200000000001</v>
       </c>
-      <c r="Q54" s="56">
+      <c r="AB54"/>
+      <c r="AC54"/>
+      <c r="AE54">
         <v>0.476636</v>
       </c>
-      <c r="S54" s="57">
+      <c r="AF54"/>
+      <c r="AG54"/>
+      <c r="AI54">
         <v>0.56074800000000002</v>
       </c>
-      <c r="U54" s="58">
+      <c r="AJ54"/>
+      <c r="AK54"/>
+      <c r="AM54">
         <v>18.950600000000001</v>
       </c>
-      <c r="W54" s="59">
+      <c r="AN54"/>
+      <c r="AO54"/>
+      <c r="AQ54">
         <v>0.485981</v>
       </c>
     </row>
-    <row r="55" spans="1:23" x14ac:dyDescent="0.2">
+    <row r="55" spans="1:43" x14ac:dyDescent="0.2">
       <c r="A55" s="4"/>
       <c r="B55" s="1">
         <v>9</v>
       </c>
-      <c r="C55" s="49">
+      <c r="C55">
         <v>0.33070500000000003</v>
       </c>
-      <c r="E55" s="50">
+      <c r="D55"/>
+      <c r="E55"/>
+      <c r="G55">
         <v>0.49840400000000001</v>
       </c>
-      <c r="G55" s="51">
+      <c r="H55"/>
+      <c r="I55"/>
+      <c r="K55">
         <v>0.52459</v>
       </c>
-      <c r="I55" s="52">
+      <c r="L55"/>
+      <c r="M55"/>
+      <c r="O55">
         <v>0.79508199999999996</v>
       </c>
-      <c r="K55" s="53">
+      <c r="P55"/>
+      <c r="Q55"/>
+      <c r="S55">
         <v>14.133100000000001</v>
       </c>
-      <c r="M55" s="54">
+      <c r="T55"/>
+      <c r="U55"/>
+      <c r="W55">
         <v>0.13434099999999999</v>
       </c>
-      <c r="O55" s="55">
+      <c r="X55"/>
+      <c r="Y55"/>
+      <c r="AA55">
         <v>0.24942600000000001</v>
       </c>
-      <c r="Q55" s="56">
+      <c r="AB55"/>
+      <c r="AC55"/>
+      <c r="AE55">
         <v>0.262295</v>
       </c>
-      <c r="S55" s="57">
+      <c r="AF55"/>
+      <c r="AG55"/>
+      <c r="AI55">
         <v>0.45901599999999998</v>
       </c>
-      <c r="U55" s="58">
+      <c r="AJ55"/>
+      <c r="AK55"/>
+      <c r="AM55">
         <v>35.8673</v>
       </c>
-      <c r="W55" s="59">
+      <c r="AN55"/>
+      <c r="AO55"/>
+      <c r="AQ55">
         <v>0.39344299999999999</v>
       </c>
     </row>
-    <row r="56" spans="1:23" x14ac:dyDescent="0.2">
+    <row r="56" spans="1:43" x14ac:dyDescent="0.2">
       <c r="A56" s="4"/>
       <c r="B56" s="1">
         <v>10</v>
       </c>
-      <c r="C56" s="49">
+      <c r="C56">
         <v>0.31131500000000001</v>
       </c>
-      <c r="E56" s="50">
+      <c r="D56"/>
+      <c r="E56"/>
+      <c r="G56">
         <v>0.48236000000000001</v>
       </c>
-      <c r="G56" s="51">
+      <c r="H56"/>
+      <c r="I56"/>
+      <c r="K56">
         <v>0.48571399999999998</v>
       </c>
-      <c r="I56" s="52">
+      <c r="L56"/>
+      <c r="M56"/>
+      <c r="O56">
         <v>0.77857100000000001</v>
       </c>
-      <c r="K56" s="53">
+      <c r="P56"/>
+      <c r="Q56"/>
+      <c r="S56">
         <v>15.602600000000001</v>
       </c>
-      <c r="M56" s="54">
+      <c r="T56"/>
+      <c r="U56"/>
+      <c r="W56">
         <v>7.7536099999999997E-2</v>
       </c>
-      <c r="O56" s="55">
+      <c r="X56"/>
+      <c r="Y56"/>
+      <c r="AA56">
         <v>0.15396000000000001</v>
       </c>
-      <c r="Q56" s="56">
+      <c r="AB56"/>
+      <c r="AC56"/>
+      <c r="AE56">
         <v>0.16428599999999999</v>
       </c>
-      <c r="S56" s="57">
+      <c r="AF56"/>
+      <c r="AG56"/>
+      <c r="AI56">
         <v>0.28571400000000002</v>
       </c>
-      <c r="U56" s="58">
+      <c r="AJ56"/>
+      <c r="AK56"/>
+      <c r="AM56">
         <v>49.9345</v>
       </c>
-      <c r="W56" s="59">
+      <c r="AN56"/>
+      <c r="AO56"/>
+      <c r="AQ56">
         <v>0.55000000000000004</v>
       </c>
     </row>
-    <row r="57" spans="1:23" x14ac:dyDescent="0.2">
+    <row r="57" spans="1:43" x14ac:dyDescent="0.2">
       <c r="A57" s="4"/>
       <c r="B57" s="1" t="s">
         <v>26</v>
       </c>
-      <c r="C57" s="49">
+      <c r="C57">
         <v>0.35410999999999998</v>
       </c>
-      <c r="E57" s="50">
+      <c r="D57"/>
+      <c r="E57"/>
+      <c r="G57">
         <v>0.52487700000000004</v>
       </c>
-      <c r="G57" s="51">
+      <c r="H57"/>
+      <c r="I57"/>
+      <c r="K57">
         <v>0.54926900000000001</v>
       </c>
-      <c r="I57" s="52">
+      <c r="L57"/>
+      <c r="M57"/>
+      <c r="O57">
         <v>0.80263399999999996</v>
       </c>
-      <c r="K57" s="53">
+      <c r="P57"/>
+      <c r="Q57"/>
+      <c r="S57">
         <v>13.971299999999999</v>
       </c>
-      <c r="M57" s="54">
+      <c r="T57"/>
+      <c r="U57"/>
+      <c r="W57">
         <v>9.2295699999999994E-2</v>
       </c>
-      <c r="O57" s="55">
+      <c r="X57"/>
+      <c r="Y57"/>
+      <c r="AA57">
         <v>0.18460199999999999</v>
       </c>
-      <c r="Q57" s="56">
+      <c r="AB57"/>
+      <c r="AC57"/>
+      <c r="AE57">
         <v>0.184196</v>
       </c>
-      <c r="S57" s="57">
+      <c r="AF57"/>
+      <c r="AG57"/>
+      <c r="AI57">
         <v>0.35487999999999997</v>
       </c>
-      <c r="U57" s="58">
+      <c r="AJ57"/>
+      <c r="AK57"/>
+      <c r="AM57">
         <v>44.383400000000002</v>
       </c>
-      <c r="W57" s="59">
+      <c r="AN57"/>
+      <c r="AO57"/>
+      <c r="AQ57">
         <v>0.48764999999999997</v>
       </c>
     </row>
   </sheetData>
   <mergeCells count="44">
-    <mergeCell ref="Q32:R32"/>
-    <mergeCell ref="S32:T32"/>
-    <mergeCell ref="U32:V32"/>
-    <mergeCell ref="C45:D45"/>
-    <mergeCell ref="E45:F45"/>
-    <mergeCell ref="G45:H45"/>
-    <mergeCell ref="I45:J45"/>
-    <mergeCell ref="K45:L45"/>
-    <mergeCell ref="M45:N45"/>
-    <mergeCell ref="O45:P45"/>
-    <mergeCell ref="Q45:R45"/>
-    <mergeCell ref="S45:T45"/>
-    <mergeCell ref="U45:V45"/>
-    <mergeCell ref="G32:H32"/>
-    <mergeCell ref="I32:J32"/>
-    <mergeCell ref="K32:L32"/>
-    <mergeCell ref="M32:N32"/>
-    <mergeCell ref="O32:P32"/>
-    <mergeCell ref="C18:D18"/>
-    <mergeCell ref="E18:F18"/>
-    <mergeCell ref="G18:H18"/>
-    <mergeCell ref="I18:J18"/>
-    <mergeCell ref="K18:L18"/>
-    <mergeCell ref="M18:N18"/>
-    <mergeCell ref="O18:P18"/>
-    <mergeCell ref="Q18:R18"/>
-    <mergeCell ref="S18:T18"/>
-    <mergeCell ref="U18:V18"/>
+    <mergeCell ref="AA45:AD45"/>
+    <mergeCell ref="AE45:AH45"/>
+    <mergeCell ref="AI45:AL45"/>
+    <mergeCell ref="AM45:AP45"/>
+    <mergeCell ref="W32:Z32"/>
+    <mergeCell ref="AA32:AD32"/>
+    <mergeCell ref="AE32:AH32"/>
+    <mergeCell ref="W45:Z45"/>
     <mergeCell ref="A47:A57"/>
     <mergeCell ref="A3:A16"/>
     <mergeCell ref="A20:A30"/>
     <mergeCell ref="A34:A43"/>
-    <mergeCell ref="C1:D1"/>
-    <mergeCell ref="E1:F1"/>
-    <mergeCell ref="C32:D32"/>
-    <mergeCell ref="E32:F32"/>
-    <mergeCell ref="Q1:R1"/>
-    <mergeCell ref="S1:T1"/>
-    <mergeCell ref="U1:V1"/>
-    <mergeCell ref="G1:H1"/>
-    <mergeCell ref="I1:J1"/>
-    <mergeCell ref="K1:L1"/>
-    <mergeCell ref="M1:N1"/>
-    <mergeCell ref="O1:P1"/>
+    <mergeCell ref="S32:V32"/>
+    <mergeCell ref="C45:F45"/>
+    <mergeCell ref="G45:J45"/>
+    <mergeCell ref="K45:N45"/>
+    <mergeCell ref="O45:R45"/>
+    <mergeCell ref="S45:V45"/>
+    <mergeCell ref="AM1:AP1"/>
+    <mergeCell ref="AM18:AP18"/>
+    <mergeCell ref="AM32:AP32"/>
+    <mergeCell ref="S1:V1"/>
+    <mergeCell ref="S18:V18"/>
+    <mergeCell ref="W1:Z1"/>
+    <mergeCell ref="W18:Z18"/>
+    <mergeCell ref="AA1:AD1"/>
+    <mergeCell ref="AA18:AD18"/>
+    <mergeCell ref="AE1:AH1"/>
+    <mergeCell ref="AE18:AH18"/>
+    <mergeCell ref="AI1:AL1"/>
+    <mergeCell ref="AI18:AL18"/>
+    <mergeCell ref="AI32:AL32"/>
+    <mergeCell ref="K1:N1"/>
+    <mergeCell ref="K18:N18"/>
+    <mergeCell ref="K32:N32"/>
+    <mergeCell ref="O1:R1"/>
+    <mergeCell ref="O18:R18"/>
+    <mergeCell ref="O32:R32"/>
+    <mergeCell ref="C1:F1"/>
+    <mergeCell ref="C18:F18"/>
+    <mergeCell ref="C32:F32"/>
+    <mergeCell ref="G1:J1"/>
+    <mergeCell ref="G18:J18"/>
+    <mergeCell ref="G32:J32"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
